--- a/BD/SC_2023_Supply Chain Basics.xlsx
+++ b/BD/SC_2023_Supply Chain Basics.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2250" documentId="11_97DFCCF5C167D5FB78384422ECC2389C30023074" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C3B2E4C-A7DB-47F2-85DE-78531157926C}"/>
+  <xr:revisionPtr revIDLastSave="2252" documentId="11_97DFCCF5C167D5FB78384422ECC2389C30023074" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644BC769-2616-4B6F-8844-6BCA167D21C5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descrição do projeto" sheetId="3" r:id="rId1"/>
     <sheet name="Metas do projeto" sheetId="2" r:id="rId2"/>
     <sheet name="Tarefas do projeto" sheetId="1" r:id="rId3"/>
     <sheet name="gantt" sheetId="5" r:id="rId4"/>
-    <sheet name="Planilha1" sheetId="6" r:id="rId5"/>
+    <sheet name="Transporte" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -4579,7 +4579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4782,6 +4782,40 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4806,25 +4840,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4834,36 +4849,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5529,7 +5528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X646"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -53358,8 +53357,8 @@
   <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53405,10 +53404,10 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -53439,8 +53438,8 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="30" t="s">
         <v>74</v>
       </c>
@@ -53469,8 +53468,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="30" t="s">
         <v>76</v>
       </c>
@@ -53499,8 +53498,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="30" t="s">
         <v>81</v>
       </c>
@@ -53529,8 +53528,8 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="30" t="s">
         <v>83</v>
       </c>
@@ -53559,8 +53558,8 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="30" t="s">
         <v>85</v>
       </c>
@@ -53589,8 +53588,8 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="30" t="s">
         <v>88</v>
       </c>
@@ -53619,8 +53618,8 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="30" t="s">
         <v>85</v>
       </c>
@@ -53649,8 +53648,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="30" t="s">
         <v>93</v>
       </c>
@@ -53679,8 +53678,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="30" t="s">
         <v>95</v>
       </c>
@@ -53709,8 +53708,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -53739,8 +53738,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="30" t="s">
         <v>100</v>
       </c>
@@ -53769,8 +53768,8 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="30" t="s">
         <v>100</v>
       </c>
@@ -53799,8 +53798,8 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="30" t="s">
         <v>100</v>
       </c>
@@ -53829,8 +53828,8 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="30" t="s">
         <v>100</v>
       </c>
@@ -53859,8 +53858,8 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -53889,8 +53888,8 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="31" t="s">
         <v>109</v>
       </c>
@@ -53919,8 +53918,8 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="31" t="s">
         <v>109</v>
       </c>
@@ -53949,8 +53948,8 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="30" t="s">
         <v>112</v>
       </c>
@@ -53979,8 +53978,8 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -54011,8 +54010,8 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="30" t="s">
         <v>128</v>
       </c>
@@ -54041,8 +54040,8 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="30" t="s">
         <v>130</v>
       </c>
@@ -54071,8 +54070,8 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="80"/>
+      <c r="B24" s="80" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -54103,8 +54102,8 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="30" t="s">
         <v>146</v>
       </c>
@@ -54133,8 +54132,8 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="30" t="s">
         <v>152</v>
       </c>
@@ -54163,8 +54162,8 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="80" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -54195,8 +54194,8 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="30" t="s">
         <v>167</v>
       </c>
@@ -54225,8 +54224,8 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="30" t="s">
         <v>172</v>
       </c>
@@ -54255,8 +54254,8 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="30" t="s">
         <v>176</v>
       </c>
@@ -54285,7 +54284,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="80" t="s">
         <v>181</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -54319,7 +54318,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="78"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="29" t="s">
         <v>188</v>
       </c>
@@ -54351,10 +54350,10 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="80" t="s">
         <v>197</v>
       </c>
       <c r="C33" s="30" t="s">
@@ -54385,8 +54384,8 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="30" t="s">
         <v>203</v>
       </c>
@@ -54415,8 +54414,8 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="30" t="s">
         <v>208</v>
       </c>
@@ -54445,8 +54444,8 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="30" t="s">
         <v>214</v>
       </c>
@@ -54475,8 +54474,8 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="30" t="s">
         <v>216</v>
       </c>
@@ -54505,7 +54504,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="81" t="s">
         <v>227</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -54539,7 +54538,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="27" t="s">
         <v>235</v>
       </c>
@@ -54571,7 +54570,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="27" t="s">
         <v>237</v>
       </c>
@@ -54603,7 +54602,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="27" t="s">
         <v>239</v>
       </c>
@@ -54635,7 +54634,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="27" t="s">
         <v>242</v>
       </c>
@@ -54667,7 +54666,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="27" t="s">
         <v>244</v>
       </c>
@@ -54699,7 +54698,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="27" t="s">
         <v>246</v>
       </c>
@@ -54731,7 +54730,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="27" t="s">
         <v>250</v>
       </c>
@@ -54763,7 +54762,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="79"/>
+      <c r="A46" s="81"/>
       <c r="B46" s="27" t="s">
         <v>254</v>
       </c>
@@ -54795,7 +54794,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="79"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="27" t="s">
         <v>258</v>
       </c>
@@ -54827,7 +54826,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="79"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="27" t="s">
         <v>260</v>
       </c>
@@ -54859,7 +54858,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="79"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="27" t="s">
         <v>262</v>
       </c>
@@ -55061,10 +55060,10 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="82" t="s">
         <v>291</v>
       </c>
       <c r="C55" s="31" t="s">
@@ -55095,8 +55094,8 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
       <c r="C56" s="31" t="s">
         <v>298</v>
       </c>
@@ -55125,8 +55124,8 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="31" t="s">
         <v>301</v>
       </c>
@@ -55155,8 +55154,8 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="31" t="s">
         <v>303</v>
       </c>
@@ -55185,8 +55184,8 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
       <c r="C59" s="31" t="s">
         <v>307</v>
       </c>
@@ -55215,8 +55214,8 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70" t="s">
+      <c r="A60" s="82"/>
+      <c r="B60" s="82" t="s">
         <v>310</v>
       </c>
       <c r="C60" s="31" t="s">
@@ -55247,8 +55246,8 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="31" t="s">
         <v>320</v>
       </c>
@@ -55277,8 +55276,8 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
       <c r="C62" s="31" t="s">
         <v>323</v>
       </c>
@@ -55307,8 +55306,8 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="31" t="s">
         <v>325</v>
       </c>
@@ -55337,8 +55336,8 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="82"/>
       <c r="C64" s="31" t="s">
         <v>329</v>
       </c>
@@ -55367,8 +55366,8 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70" t="s">
+      <c r="A65" s="82"/>
+      <c r="B65" s="82" t="s">
         <v>333</v>
       </c>
       <c r="C65" s="31" t="s">
@@ -55399,8 +55398,8 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="82"/>
       <c r="C66" s="31" t="s">
         <v>340</v>
       </c>
@@ -55429,7 +55428,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="82" t="s">
         <v>343</v>
       </c>
       <c r="B67" s="26" t="s">
@@ -55463,7 +55462,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="70"/>
+      <c r="A68" s="82"/>
       <c r="B68" s="26" t="s">
         <v>348</v>
       </c>
@@ -55495,7 +55494,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="83" t="s">
         <v>357</v>
       </c>
       <c r="B69" s="32" t="s">
@@ -55529,7 +55528,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="71"/>
+      <c r="A70" s="83"/>
       <c r="B70" s="32" t="s">
         <v>364</v>
       </c>
@@ -55561,7 +55560,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="83" t="s">
         <v>366</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -55595,7 +55594,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="71"/>
+      <c r="A72" s="83"/>
       <c r="B72" s="32" t="s">
         <v>375</v>
       </c>
@@ -55627,7 +55626,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="83" t="s">
         <v>378</v>
       </c>
       <c r="B73" s="32" t="s">
@@ -55661,7 +55660,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="71"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="32" t="s">
         <v>385</v>
       </c>
@@ -55693,7 +55692,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="71"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="32" t="s">
         <v>388</v>
       </c>
@@ -55725,10 +55724,10 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="B76" s="71" t="s">
+      <c r="B76" s="83" t="s">
         <v>395</v>
       </c>
       <c r="C76" s="28" t="s">
@@ -55759,8 +55758,8 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
+      <c r="A77" s="83"/>
+      <c r="B77" s="83"/>
       <c r="C77" s="28" t="s">
         <v>399</v>
       </c>
@@ -55789,8 +55788,8 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="83"/>
       <c r="C78" s="28" t="s">
         <v>401</v>
       </c>
@@ -55819,8 +55818,8 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="83"/>
       <c r="C79" s="28" t="s">
         <v>405</v>
       </c>
@@ -55849,7 +55848,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="83" t="s">
         <v>409</v>
       </c>
       <c r="B80" s="32" t="s">
@@ -55883,7 +55882,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="71"/>
+      <c r="A81" s="83"/>
       <c r="B81" s="32" t="s">
         <v>416</v>
       </c>
@@ -55915,7 +55914,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="71"/>
+      <c r="A82" s="83"/>
       <c r="B82" s="32" t="s">
         <v>420</v>
       </c>
@@ -55947,7 +55946,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="71"/>
+      <c r="A83" s="83"/>
       <c r="B83" s="32" t="s">
         <v>424</v>
       </c>
@@ -55979,7 +55978,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="71" t="s">
+      <c r="A84" s="83" t="s">
         <v>428</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -56013,7 +56012,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="71"/>
+      <c r="A85" s="83"/>
       <c r="B85" s="32" t="s">
         <v>435</v>
       </c>
@@ -56045,7 +56044,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="71"/>
+      <c r="A86" s="83"/>
       <c r="B86" s="32" t="s">
         <v>437</v>
       </c>
@@ -56077,7 +56076,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="71"/>
+      <c r="A87" s="83"/>
       <c r="B87" s="32" t="s">
         <v>439</v>
       </c>
@@ -56109,7 +56108,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72" t="s">
+      <c r="A88" s="84" t="s">
         <v>441</v>
       </c>
       <c r="B88" s="32" t="s">
@@ -56143,8 +56142,8 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
-      <c r="B89" s="72" t="s">
+      <c r="A89" s="85"/>
+      <c r="B89" s="84" t="s">
         <v>448</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -56172,8 +56171,8 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
-      <c r="B90" s="73"/>
+      <c r="A90" s="85"/>
+      <c r="B90" s="85"/>
       <c r="C90" s="28" t="s">
         <v>459</v>
       </c>
@@ -56199,8 +56198,8 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="74"/>
-      <c r="B91" s="74"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="86"/>
       <c r="C91" s="28" t="s">
         <v>468</v>
       </c>
@@ -56226,10 +56225,10 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="71" t="s">
+      <c r="A92" s="83" t="s">
         <v>474</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="83" t="s">
         <v>478</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -56257,8 +56256,8 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="71"/>
-      <c r="B93" s="71"/>
+      <c r="A93" s="83"/>
+      <c r="B93" s="83"/>
       <c r="C93" s="28" t="s">
         <v>483</v>
       </c>
@@ -56284,7 +56283,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="71"/>
+      <c r="A94" s="83"/>
       <c r="B94" s="32" t="s">
         <v>485</v>
       </c>
@@ -56313,7 +56312,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="71"/>
+      <c r="A95" s="83"/>
       <c r="B95" s="32" t="s">
         <v>487</v>
       </c>
@@ -56342,7 +56341,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="71"/>
+      <c r="A96" s="83"/>
       <c r="B96" s="32" t="s">
         <v>490</v>
       </c>
@@ -56371,7 +56370,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="71"/>
+      <c r="A97" s="83"/>
       <c r="B97" s="32" t="s">
         <v>493</v>
       </c>
@@ -56403,7 +56402,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="71"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="32" t="s">
         <v>497</v>
       </c>
@@ -56432,7 +56431,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="71"/>
+      <c r="A99" s="83"/>
       <c r="B99" s="32" t="s">
         <v>499</v>
       </c>
@@ -56464,7 +56463,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="71"/>
+      <c r="A100" s="83"/>
       <c r="B100" s="32" t="s">
         <v>501</v>
       </c>
@@ -56496,8 +56495,8 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="71"/>
-      <c r="B101" s="71" t="s">
+      <c r="A101" s="83"/>
+      <c r="B101" s="83" t="s">
         <v>504</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -56528,8 +56527,8 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="71"/>
-      <c r="B102" s="71"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="83"/>
       <c r="C102" s="28" t="s">
         <v>509</v>
       </c>
@@ -56558,7 +56557,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="71"/>
+      <c r="A103" s="83"/>
       <c r="B103" s="32" t="s">
         <v>511</v>
       </c>
@@ -56590,7 +56589,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="71"/>
+      <c r="A104" s="83"/>
       <c r="B104" s="32" t="s">
         <v>514</v>
       </c>
@@ -56622,7 +56621,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="71"/>
+      <c r="A105" s="83"/>
       <c r="B105" s="32" t="s">
         <v>516</v>
       </c>
@@ -56654,7 +56653,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="71"/>
+      <c r="A106" s="83"/>
       <c r="B106" s="32" t="s">
         <v>518</v>
       </c>
@@ -56686,7 +56685,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="82" t="s">
         <v>526</v>
       </c>
       <c r="B107" s="26" t="s">
@@ -56720,7 +56719,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="70"/>
+      <c r="A108" s="82"/>
       <c r="B108" s="26" t="s">
         <v>535</v>
       </c>
@@ -56752,7 +56751,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="70"/>
+      <c r="A109" s="82"/>
       <c r="B109" s="26" t="s">
         <v>537</v>
       </c>
@@ -56784,7 +56783,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="70"/>
+      <c r="A110" s="82"/>
       <c r="B110" s="26" t="s">
         <v>539</v>
       </c>
@@ -56816,10 +56815,10 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="70" t="s">
+      <c r="A111" s="82" t="s">
         <v>545</v>
       </c>
-      <c r="B111" s="70" t="s">
+      <c r="B111" s="82" t="s">
         <v>551</v>
       </c>
       <c r="C111" s="31" t="s">
@@ -56850,8 +56849,8 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
       <c r="C112" s="31" t="s">
         <v>555</v>
       </c>
@@ -56880,8 +56879,8 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
+      <c r="A113" s="82"/>
+      <c r="B113" s="82"/>
       <c r="C113" s="31" t="s">
         <v>557</v>
       </c>
@@ -56910,8 +56909,8 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70" t="s">
+      <c r="A114" s="82"/>
+      <c r="B114" s="82" t="s">
         <v>559</v>
       </c>
       <c r="C114" s="31" t="s">
@@ -56942,8 +56941,8 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
+      <c r="A115" s="82"/>
+      <c r="B115" s="82"/>
       <c r="C115" s="31" t="s">
         <v>555</v>
       </c>
@@ -56972,8 +56971,8 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
+      <c r="A116" s="82"/>
+      <c r="B116" s="82"/>
       <c r="C116" s="31" t="s">
         <v>557</v>
       </c>
@@ -57002,8 +57001,8 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70" t="s">
+      <c r="A117" s="82"/>
+      <c r="B117" s="82" t="s">
         <v>564</v>
       </c>
       <c r="C117" s="31" t="s">
@@ -57034,8 +57033,8 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
+      <c r="A118" s="82"/>
+      <c r="B118" s="82"/>
       <c r="C118" s="31" t="s">
         <v>555</v>
       </c>
@@ -57064,8 +57063,8 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
+      <c r="A119" s="82"/>
+      <c r="B119" s="82"/>
       <c r="C119" s="31" t="s">
         <v>557</v>
       </c>
@@ -57094,8 +57093,8 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70" t="s">
+      <c r="A120" s="82"/>
+      <c r="B120" s="82" t="s">
         <v>569</v>
       </c>
       <c r="C120" s="31" t="s">
@@ -57126,8 +57125,8 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
+      <c r="A121" s="82"/>
+      <c r="B121" s="82"/>
       <c r="C121" s="31" t="s">
         <v>555</v>
       </c>
@@ -57156,8 +57155,8 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
+      <c r="A122" s="82"/>
+      <c r="B122" s="82"/>
       <c r="C122" s="31" t="s">
         <v>557</v>
       </c>
@@ -57186,8 +57185,8 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="70"/>
-      <c r="B123" s="70" t="s">
+      <c r="A123" s="82"/>
+      <c r="B123" s="82" t="s">
         <v>574</v>
       </c>
       <c r="C123" s="31" t="s">
@@ -57218,8 +57217,8 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="70"/>
-      <c r="B124" s="70"/>
+      <c r="A124" s="82"/>
+      <c r="B124" s="82"/>
       <c r="C124" s="31" t="s">
         <v>578</v>
       </c>
@@ -57248,8 +57247,8 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="70"/>
-      <c r="B125" s="70"/>
+      <c r="A125" s="82"/>
+      <c r="B125" s="82"/>
       <c r="C125" s="31" t="s">
         <v>557</v>
       </c>
@@ -57278,8 +57277,8 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="70"/>
-      <c r="B126" s="70" t="s">
+      <c r="A126" s="82"/>
+      <c r="B126" s="82" t="s">
         <v>583</v>
       </c>
       <c r="C126" s="31" t="s">
@@ -57310,8 +57309,8 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="70"/>
-      <c r="B127" s="70"/>
+      <c r="A127" s="82"/>
+      <c r="B127" s="82"/>
       <c r="C127" s="31" t="s">
         <v>555</v>
       </c>
@@ -57340,8 +57339,8 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="70"/>
-      <c r="B128" s="70"/>
+      <c r="A128" s="82"/>
+      <c r="B128" s="82"/>
       <c r="C128" s="31" t="s">
         <v>557</v>
       </c>
@@ -57370,8 +57369,8 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="70"/>
-      <c r="B129" s="70" t="s">
+      <c r="A129" s="82"/>
+      <c r="B129" s="82" t="s">
         <v>588</v>
       </c>
       <c r="C129" s="31" t="s">
@@ -57402,8 +57401,8 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
+      <c r="A130" s="82"/>
+      <c r="B130" s="82"/>
       <c r="C130" s="31" t="s">
         <v>555</v>
       </c>
@@ -57432,8 +57431,8 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
+      <c r="A131" s="82"/>
+      <c r="B131" s="82"/>
       <c r="C131" s="31" t="s">
         <v>557</v>
       </c>
@@ -57462,8 +57461,8 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70" t="s">
+      <c r="A132" s="82"/>
+      <c r="B132" s="82" t="s">
         <v>593</v>
       </c>
       <c r="C132" s="31" t="s">
@@ -57494,8 +57493,8 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
+      <c r="A133" s="82"/>
+      <c r="B133" s="82"/>
       <c r="C133" s="31" t="s">
         <v>600</v>
       </c>
@@ -57524,8 +57523,8 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
+      <c r="A134" s="82"/>
+      <c r="B134" s="82"/>
       <c r="C134" s="31" t="s">
         <v>602</v>
       </c>
@@ -57554,8 +57553,8 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70" t="s">
+      <c r="A135" s="82"/>
+      <c r="B135" s="82" t="s">
         <v>604</v>
       </c>
       <c r="C135" s="31" t="s">
@@ -57586,8 +57585,8 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
+      <c r="A136" s="82"/>
+      <c r="B136" s="82"/>
       <c r="C136" s="31" t="s">
         <v>555</v>
       </c>
@@ -57616,8 +57615,8 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
+      <c r="A137" s="82"/>
+      <c r="B137" s="82"/>
       <c r="C137" s="31" t="s">
         <v>557</v>
       </c>
@@ -57646,8 +57645,8 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70" t="s">
+      <c r="A138" s="82"/>
+      <c r="B138" s="82" t="s">
         <v>609</v>
       </c>
       <c r="C138" s="31" t="s">
@@ -57678,8 +57677,8 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
+      <c r="A139" s="82"/>
+      <c r="B139" s="82"/>
       <c r="C139" s="31" t="s">
         <v>555</v>
       </c>
@@ -57708,8 +57707,8 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
+      <c r="A140" s="82"/>
+      <c r="B140" s="82"/>
       <c r="C140" s="31" t="s">
         <v>557</v>
       </c>
@@ -57738,8 +57737,8 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70" t="s">
+      <c r="A141" s="82"/>
+      <c r="B141" s="82" t="s">
         <v>616</v>
       </c>
       <c r="C141" s="31" t="s">
@@ -57770,8 +57769,8 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
+      <c r="A142" s="82"/>
+      <c r="B142" s="82"/>
       <c r="C142" s="31" t="s">
         <v>622</v>
       </c>
@@ -57800,8 +57799,8 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
+      <c r="A143" s="82"/>
+      <c r="B143" s="82"/>
       <c r="C143" s="31" t="s">
         <v>626</v>
       </c>
@@ -57830,8 +57829,8 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
+      <c r="A144" s="82"/>
+      <c r="B144" s="82"/>
       <c r="C144" s="31" t="s">
         <v>628</v>
       </c>
@@ -57860,8 +57859,8 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="70"/>
-      <c r="B145" s="70"/>
+      <c r="A145" s="82"/>
+      <c r="B145" s="82"/>
       <c r="C145" s="31" t="s">
         <v>630</v>
       </c>
@@ -57890,8 +57889,8 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="70"/>
-      <c r="B146" s="70"/>
+      <c r="A146" s="82"/>
+      <c r="B146" s="82"/>
       <c r="C146" s="31" t="s">
         <v>632</v>
       </c>
@@ -57920,8 +57919,8 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="70"/>
-      <c r="B147" s="70"/>
+      <c r="A147" s="82"/>
+      <c r="B147" s="82"/>
       <c r="C147" s="31" t="s">
         <v>634</v>
       </c>
@@ -57950,8 +57949,8 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="70"/>
-      <c r="B148" s="70"/>
+      <c r="A148" s="82"/>
+      <c r="B148" s="82"/>
       <c r="C148" s="31" t="s">
         <v>636</v>
       </c>
@@ -57979,8 +57978,8 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="70"/>
-      <c r="B149" s="70" t="s">
+      <c r="A149" s="82"/>
+      <c r="B149" s="82" t="s">
         <v>638</v>
       </c>
       <c r="C149" s="31" t="s">
@@ -58011,8 +58010,8 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="70"/>
-      <c r="B150" s="70"/>
+      <c r="A150" s="82"/>
+      <c r="B150" s="82"/>
       <c r="C150" s="31" t="s">
         <v>622</v>
       </c>
@@ -58041,8 +58040,8 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="70"/>
-      <c r="B151" s="70"/>
+      <c r="A151" s="82"/>
+      <c r="B151" s="82"/>
       <c r="C151" s="31" t="s">
         <v>626</v>
       </c>
@@ -58071,8 +58070,8 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="70"/>
-      <c r="B152" s="70"/>
+      <c r="A152" s="82"/>
+      <c r="B152" s="82"/>
       <c r="C152" s="31" t="s">
         <v>628</v>
       </c>
@@ -58101,8 +58100,8 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="70"/>
-      <c r="B153" s="70"/>
+      <c r="A153" s="82"/>
+      <c r="B153" s="82"/>
       <c r="C153" s="31" t="s">
         <v>630</v>
       </c>
@@ -58131,8 +58130,8 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="70"/>
-      <c r="B154" s="70"/>
+      <c r="A154" s="82"/>
+      <c r="B154" s="82"/>
       <c r="C154" s="31" t="s">
         <v>632</v>
       </c>
@@ -58161,8 +58160,8 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="70"/>
-      <c r="B155" s="70"/>
+      <c r="A155" s="82"/>
+      <c r="B155" s="82"/>
       <c r="C155" s="31" t="s">
         <v>634</v>
       </c>
@@ -58191,8 +58190,8 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="70"/>
-      <c r="B156" s="70"/>
+      <c r="A156" s="82"/>
+      <c r="B156" s="82"/>
       <c r="C156" s="31" t="s">
         <v>636</v>
       </c>
@@ -58221,8 +58220,8 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="70"/>
-      <c r="B157" s="70" t="s">
+      <c r="A157" s="82"/>
+      <c r="B157" s="82" t="s">
         <v>648</v>
       </c>
       <c r="C157" s="31" t="s">
@@ -58253,8 +58252,8 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="70"/>
-      <c r="B158" s="70"/>
+      <c r="A158" s="82"/>
+      <c r="B158" s="82"/>
       <c r="C158" s="31" t="s">
         <v>622</v>
       </c>
@@ -58283,8 +58282,8 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="70"/>
-      <c r="B159" s="70"/>
+      <c r="A159" s="82"/>
+      <c r="B159" s="82"/>
       <c r="C159" s="31" t="s">
         <v>626</v>
       </c>
@@ -58313,8 +58312,8 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="70"/>
-      <c r="B160" s="70"/>
+      <c r="A160" s="82"/>
+      <c r="B160" s="82"/>
       <c r="C160" s="31" t="s">
         <v>628</v>
       </c>
@@ -58343,8 +58342,8 @@
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="70"/>
-      <c r="B161" s="70"/>
+      <c r="A161" s="82"/>
+      <c r="B161" s="82"/>
       <c r="C161" s="31" t="s">
         <v>630</v>
       </c>
@@ -58373,8 +58372,8 @@
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="70"/>
-      <c r="B162" s="70"/>
+      <c r="A162" s="82"/>
+      <c r="B162" s="82"/>
       <c r="C162" s="31" t="s">
         <v>632</v>
       </c>
@@ -58403,8 +58402,8 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="70"/>
-      <c r="B163" s="70"/>
+      <c r="A163" s="82"/>
+      <c r="B163" s="82"/>
       <c r="C163" s="31" t="s">
         <v>634</v>
       </c>
@@ -58433,8 +58432,8 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="70"/>
-      <c r="B164" s="70"/>
+      <c r="A164" s="82"/>
+      <c r="B164" s="82"/>
       <c r="C164" s="31" t="s">
         <v>636</v>
       </c>
@@ -58463,8 +58462,8 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="70"/>
-      <c r="B165" s="70" t="s">
+      <c r="A165" s="82"/>
+      <c r="B165" s="82" t="s">
         <v>659</v>
       </c>
       <c r="C165" s="31" t="s">
@@ -58495,8 +58494,8 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="70"/>
-      <c r="B166" s="70"/>
+      <c r="A166" s="82"/>
+      <c r="B166" s="82"/>
       <c r="C166" s="31" t="s">
         <v>622</v>
       </c>
@@ -58525,8 +58524,8 @@
       </c>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="70"/>
-      <c r="B167" s="70"/>
+      <c r="A167" s="82"/>
+      <c r="B167" s="82"/>
       <c r="C167" s="31" t="s">
         <v>626</v>
       </c>
@@ -58555,8 +58554,8 @@
       </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="70"/>
-      <c r="B168" s="70"/>
+      <c r="A168" s="82"/>
+      <c r="B168" s="82"/>
       <c r="C168" s="31" t="s">
         <v>628</v>
       </c>
@@ -58585,8 +58584,8 @@
       </c>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="70"/>
-      <c r="B169" s="70"/>
+      <c r="A169" s="82"/>
+      <c r="B169" s="82"/>
       <c r="C169" s="31" t="s">
         <v>630</v>
       </c>
@@ -58615,8 +58614,8 @@
       </c>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="70"/>
-      <c r="B170" s="70"/>
+      <c r="A170" s="82"/>
+      <c r="B170" s="82"/>
       <c r="C170" s="31" t="s">
         <v>632</v>
       </c>
@@ -58645,8 +58644,8 @@
       </c>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="70"/>
-      <c r="B171" s="70"/>
+      <c r="A171" s="82"/>
+      <c r="B171" s="82"/>
       <c r="C171" s="31" t="s">
         <v>634</v>
       </c>
@@ -58675,8 +58674,8 @@
       </c>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="70"/>
-      <c r="B172" s="70"/>
+      <c r="A172" s="82"/>
+      <c r="B172" s="82"/>
       <c r="C172" s="31" t="s">
         <v>636</v>
       </c>
@@ -58705,8 +58704,8 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="70"/>
-      <c r="B173" s="70" t="s">
+      <c r="A173" s="82"/>
+      <c r="B173" s="82" t="s">
         <v>671</v>
       </c>
       <c r="C173" s="31" t="s">
@@ -58737,8 +58736,8 @@
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="70"/>
-      <c r="B174" s="70"/>
+      <c r="A174" s="82"/>
+      <c r="B174" s="82"/>
       <c r="C174" s="31" t="s">
         <v>622</v>
       </c>
@@ -58767,8 +58766,8 @@
       </c>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="70"/>
-      <c r="B175" s="70"/>
+      <c r="A175" s="82"/>
+      <c r="B175" s="82"/>
       <c r="C175" s="31" t="s">
         <v>626</v>
       </c>
@@ -58797,8 +58796,8 @@
       </c>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="70"/>
-      <c r="B176" s="70"/>
+      <c r="A176" s="82"/>
+      <c r="B176" s="82"/>
       <c r="C176" s="31" t="s">
         <v>628</v>
       </c>
@@ -58827,8 +58826,8 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="70"/>
-      <c r="B177" s="70"/>
+      <c r="A177" s="82"/>
+      <c r="B177" s="82"/>
       <c r="C177" s="31" t="s">
         <v>630</v>
       </c>
@@ -58857,8 +58856,8 @@
       </c>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="70"/>
-      <c r="B178" s="70"/>
+      <c r="A178" s="82"/>
+      <c r="B178" s="82"/>
       <c r="C178" s="31" t="s">
         <v>632</v>
       </c>
@@ -58887,8 +58886,8 @@
       </c>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="70"/>
-      <c r="B179" s="70"/>
+      <c r="A179" s="82"/>
+      <c r="B179" s="82"/>
       <c r="C179" s="31" t="s">
         <v>634</v>
       </c>
@@ -58917,8 +58916,8 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="70"/>
-      <c r="B180" s="70"/>
+      <c r="A180" s="82"/>
+      <c r="B180" s="82"/>
       <c r="C180" s="31" t="s">
         <v>636</v>
       </c>
@@ -58947,8 +58946,8 @@
       </c>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="70"/>
-      <c r="B181" s="70" t="s">
+      <c r="A181" s="82"/>
+      <c r="B181" s="82" t="s">
         <v>682</v>
       </c>
       <c r="C181" s="31" t="s">
@@ -58979,8 +58978,8 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="70"/>
-      <c r="B182" s="70"/>
+      <c r="A182" s="82"/>
+      <c r="B182" s="82"/>
       <c r="C182" s="31" t="s">
         <v>622</v>
       </c>
@@ -59009,8 +59008,8 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="70"/>
-      <c r="B183" s="70"/>
+      <c r="A183" s="82"/>
+      <c r="B183" s="82"/>
       <c r="C183" s="31" t="s">
         <v>626</v>
       </c>
@@ -59039,8 +59038,8 @@
       </c>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="70"/>
-      <c r="B184" s="70"/>
+      <c r="A184" s="82"/>
+      <c r="B184" s="82"/>
       <c r="C184" s="31" t="s">
         <v>628</v>
       </c>
@@ -59069,8 +59068,8 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="70"/>
-      <c r="B185" s="70"/>
+      <c r="A185" s="82"/>
+      <c r="B185" s="82"/>
       <c r="C185" s="31" t="s">
         <v>630</v>
       </c>
@@ -59099,8 +59098,8 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="70"/>
-      <c r="B186" s="70"/>
+      <c r="A186" s="82"/>
+      <c r="B186" s="82"/>
       <c r="C186" s="31" t="s">
         <v>632</v>
       </c>
@@ -59129,8 +59128,8 @@
       </c>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="70"/>
-      <c r="B187" s="70"/>
+      <c r="A187" s="82"/>
+      <c r="B187" s="82"/>
       <c r="C187" s="31" t="s">
         <v>634</v>
       </c>
@@ -59159,8 +59158,8 @@
       </c>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="70"/>
-      <c r="B188" s="70"/>
+      <c r="A188" s="82"/>
+      <c r="B188" s="82"/>
       <c r="C188" s="31" t="s">
         <v>636</v>
       </c>
@@ -59189,8 +59188,8 @@
       </c>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="70"/>
-      <c r="B189" s="70" t="s">
+      <c r="A189" s="82"/>
+      <c r="B189" s="82" t="s">
         <v>695</v>
       </c>
       <c r="C189" s="31" t="s">
@@ -59221,8 +59220,8 @@
       </c>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="70"/>
-      <c r="B190" s="70"/>
+      <c r="A190" s="82"/>
+      <c r="B190" s="82"/>
       <c r="C190" s="31" t="s">
         <v>622</v>
       </c>
@@ -59251,8 +59250,8 @@
       </c>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="70"/>
-      <c r="B191" s="70"/>
+      <c r="A191" s="82"/>
+      <c r="B191" s="82"/>
       <c r="C191" s="31" t="s">
         <v>626</v>
       </c>
@@ -59281,8 +59280,8 @@
       </c>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="70"/>
-      <c r="B192" s="70"/>
+      <c r="A192" s="82"/>
+      <c r="B192" s="82"/>
       <c r="C192" s="31" t="s">
         <v>628</v>
       </c>
@@ -59311,8 +59310,8 @@
       </c>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="70"/>
-      <c r="B193" s="70"/>
+      <c r="A193" s="82"/>
+      <c r="B193" s="82"/>
       <c r="C193" s="31" t="s">
         <v>630</v>
       </c>
@@ -59341,8 +59340,8 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="70"/>
-      <c r="B194" s="70"/>
+      <c r="A194" s="82"/>
+      <c r="B194" s="82"/>
       <c r="C194" s="31" t="s">
         <v>632</v>
       </c>
@@ -59371,8 +59370,8 @@
       </c>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="70"/>
-      <c r="B195" s="70"/>
+      <c r="A195" s="82"/>
+      <c r="B195" s="82"/>
       <c r="C195" s="31" t="s">
         <v>634</v>
       </c>
@@ -59401,8 +59400,8 @@
       </c>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="70"/>
-      <c r="B196" s="70"/>
+      <c r="A196" s="82"/>
+      <c r="B196" s="82"/>
       <c r="C196" s="31" t="s">
         <v>636</v>
       </c>
@@ -59431,8 +59430,8 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="70"/>
-      <c r="B197" s="70" t="s">
+      <c r="A197" s="82"/>
+      <c r="B197" s="82" t="s">
         <v>708</v>
       </c>
       <c r="C197" s="31" t="s">
@@ -59463,8 +59462,8 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="70"/>
-      <c r="B198" s="70"/>
+      <c r="A198" s="82"/>
+      <c r="B198" s="82"/>
       <c r="C198" s="31" t="s">
         <v>622</v>
       </c>
@@ -59493,8 +59492,8 @@
       </c>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="70"/>
-      <c r="B199" s="70"/>
+      <c r="A199" s="82"/>
+      <c r="B199" s="82"/>
       <c r="C199" s="31" t="s">
         <v>626</v>
       </c>
@@ -59523,8 +59522,8 @@
       </c>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="70"/>
-      <c r="B200" s="70"/>
+      <c r="A200" s="82"/>
+      <c r="B200" s="82"/>
       <c r="C200" s="31" t="s">
         <v>628</v>
       </c>
@@ -59553,8 +59552,8 @@
       </c>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="70"/>
-      <c r="B201" s="70"/>
+      <c r="A201" s="82"/>
+      <c r="B201" s="82"/>
       <c r="C201" s="31" t="s">
         <v>630</v>
       </c>
@@ -59583,8 +59582,8 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="70"/>
-      <c r="B202" s="70"/>
+      <c r="A202" s="82"/>
+      <c r="B202" s="82"/>
       <c r="C202" s="31" t="s">
         <v>632</v>
       </c>
@@ -59613,8 +59612,8 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="70"/>
-      <c r="B203" s="70"/>
+      <c r="A203" s="82"/>
+      <c r="B203" s="82"/>
       <c r="C203" s="31" t="s">
         <v>634</v>
       </c>
@@ -59643,8 +59642,8 @@
       </c>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="70"/>
-      <c r="B204" s="70"/>
+      <c r="A204" s="82"/>
+      <c r="B204" s="82"/>
       <c r="C204" s="31" t="s">
         <v>636</v>
       </c>
@@ -59673,10 +59672,10 @@
       </c>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="75" t="s">
+      <c r="A205" s="87" t="s">
         <v>722</v>
       </c>
-      <c r="B205" s="75" t="s">
+      <c r="B205" s="87" t="s">
         <v>728</v>
       </c>
       <c r="C205" s="31" t="s">
@@ -59707,8 +59706,8 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="76"/>
-      <c r="B206" s="76"/>
+      <c r="A206" s="88"/>
+      <c r="B206" s="88"/>
       <c r="C206" s="31" t="s">
         <v>734</v>
       </c>
@@ -59737,8 +59736,8 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="76"/>
-      <c r="B207" s="76"/>
+      <c r="A207" s="88"/>
+      <c r="B207" s="88"/>
       <c r="C207" s="31" t="s">
         <v>777</v>
       </c>
@@ -59767,8 +59766,8 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="76"/>
-      <c r="B208" s="77"/>
+      <c r="A208" s="88"/>
+      <c r="B208" s="89"/>
       <c r="C208" s="31" t="s">
         <v>779</v>
       </c>
@@ -59797,7 +59796,7 @@
       </c>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="76"/>
+      <c r="A209" s="88"/>
       <c r="B209" s="26" t="s">
         <v>785</v>
       </c>
@@ -59829,8 +59828,8 @@
       </c>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="76"/>
-      <c r="B210" s="70" t="s">
+      <c r="A210" s="88"/>
+      <c r="B210" s="82" t="s">
         <v>791</v>
       </c>
       <c r="C210" s="31" t="s">
@@ -59861,8 +59860,8 @@
       </c>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="76"/>
-      <c r="B211" s="70"/>
+      <c r="A211" s="88"/>
+      <c r="B211" s="82"/>
       <c r="C211" s="31" t="s">
         <v>622</v>
       </c>
@@ -59891,8 +59890,8 @@
       </c>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="76"/>
-      <c r="B212" s="70"/>
+      <c r="A212" s="88"/>
+      <c r="B212" s="82"/>
       <c r="C212" s="31" t="s">
         <v>626</v>
       </c>
@@ -59921,8 +59920,8 @@
       </c>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="76"/>
-      <c r="B213" s="70"/>
+      <c r="A213" s="88"/>
+      <c r="B213" s="82"/>
       <c r="C213" s="31" t="s">
         <v>628</v>
       </c>
@@ -59951,8 +59950,8 @@
       </c>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="76"/>
-      <c r="B214" s="70"/>
+      <c r="A214" s="88"/>
+      <c r="B214" s="82"/>
       <c r="C214" s="31" t="s">
         <v>630</v>
       </c>
@@ -59981,8 +59980,8 @@
       </c>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="76"/>
-      <c r="B215" s="70"/>
+      <c r="A215" s="88"/>
+      <c r="B215" s="82"/>
       <c r="C215" s="31" t="s">
         <v>632</v>
       </c>
@@ -60011,8 +60010,8 @@
       </c>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="76"/>
-      <c r="B216" s="70"/>
+      <c r="A216" s="88"/>
+      <c r="B216" s="82"/>
       <c r="C216" s="31" t="s">
         <v>634</v>
       </c>
@@ -60041,8 +60040,8 @@
       </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="76"/>
-      <c r="B217" s="70"/>
+      <c r="A217" s="88"/>
+      <c r="B217" s="82"/>
       <c r="C217" s="31" t="s">
         <v>636</v>
       </c>
@@ -60071,8 +60070,8 @@
       </c>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="76"/>
-      <c r="B218" s="70" t="s">
+      <c r="A218" s="88"/>
+      <c r="B218" s="82" t="s">
         <v>805</v>
       </c>
       <c r="C218" s="31" t="s">
@@ -60103,8 +60102,8 @@
       </c>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="76"/>
-      <c r="B219" s="70"/>
+      <c r="A219" s="88"/>
+      <c r="B219" s="82"/>
       <c r="C219" s="31" t="s">
         <v>811</v>
       </c>
@@ -60133,8 +60132,8 @@
       </c>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="76"/>
-      <c r="B220" s="70"/>
+      <c r="A220" s="88"/>
+      <c r="B220" s="82"/>
       <c r="C220" s="31" t="s">
         <v>626</v>
       </c>
@@ -60163,8 +60162,8 @@
       </c>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="76"/>
-      <c r="B221" s="70"/>
+      <c r="A221" s="88"/>
+      <c r="B221" s="82"/>
       <c r="C221" s="31" t="s">
         <v>628</v>
       </c>
@@ -60193,8 +60192,8 @@
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="76"/>
-      <c r="B222" s="70"/>
+      <c r="A222" s="88"/>
+      <c r="B222" s="82"/>
       <c r="C222" s="31" t="s">
         <v>630</v>
       </c>
@@ -60223,8 +60222,8 @@
       </c>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="76"/>
-      <c r="B223" s="70"/>
+      <c r="A223" s="88"/>
+      <c r="B223" s="82"/>
       <c r="C223" s="31" t="s">
         <v>632</v>
       </c>
@@ -60253,8 +60252,8 @@
       </c>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="76"/>
-      <c r="B224" s="70"/>
+      <c r="A224" s="88"/>
+      <c r="B224" s="82"/>
       <c r="C224" s="31" t="s">
         <v>634</v>
       </c>
@@ -60283,8 +60282,8 @@
       </c>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="77"/>
-      <c r="B225" s="70"/>
+      <c r="A225" s="89"/>
+      <c r="B225" s="82"/>
       <c r="C225" s="31" t="s">
         <v>636</v>
       </c>
@@ -60313,7 +60312,7 @@
       </c>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="75" t="s">
+      <c r="A226" s="87" t="s">
         <v>823</v>
       </c>
       <c r="B226" s="26" t="s">
@@ -60347,7 +60346,7 @@
       </c>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="76"/>
+      <c r="A227" s="88"/>
       <c r="B227" s="26" t="s">
         <v>831</v>
       </c>
@@ -60379,7 +60378,7 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="76"/>
+      <c r="A228" s="88"/>
       <c r="B228" s="26" t="s">
         <v>833</v>
       </c>
@@ -60411,7 +60410,7 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="76"/>
+      <c r="A229" s="88"/>
       <c r="B229" s="26" t="s">
         <v>835</v>
       </c>
@@ -60443,7 +60442,7 @@
       </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="76"/>
+      <c r="A230" s="88"/>
       <c r="B230" s="26" t="s">
         <v>837</v>
       </c>
@@ -60475,7 +60474,7 @@
       </c>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="76"/>
+      <c r="A231" s="88"/>
       <c r="B231" s="26" t="s">
         <v>839</v>
       </c>
@@ -60507,7 +60506,7 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="76"/>
+      <c r="A232" s="88"/>
       <c r="B232" s="26" t="s">
         <v>841</v>
       </c>
@@ -60539,7 +60538,7 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="76"/>
+      <c r="A233" s="88"/>
       <c r="B233" s="26" t="s">
         <v>843</v>
       </c>
@@ -60571,7 +60570,7 @@
       </c>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="76"/>
+      <c r="A234" s="88"/>
       <c r="B234" s="26" t="s">
         <v>845</v>
       </c>
@@ -60603,7 +60602,7 @@
       </c>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="76"/>
+      <c r="A235" s="88"/>
       <c r="B235" s="26" t="s">
         <v>850</v>
       </c>
@@ -60635,7 +60634,7 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="76"/>
+      <c r="A236" s="88"/>
       <c r="B236" s="26" t="s">
         <v>853</v>
       </c>
@@ -60667,8 +60666,8 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="76"/>
-      <c r="B237" s="70" t="s">
+      <c r="A237" s="88"/>
+      <c r="B237" s="82" t="s">
         <v>855</v>
       </c>
       <c r="C237" s="31" t="s">
@@ -60699,8 +60698,8 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="76"/>
-      <c r="B238" s="70"/>
+      <c r="A238" s="88"/>
+      <c r="B238" s="82"/>
       <c r="C238" s="31" t="s">
         <v>859</v>
       </c>
@@ -60729,8 +60728,8 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="76"/>
-      <c r="B239" s="70"/>
+      <c r="A239" s="88"/>
+      <c r="B239" s="82"/>
       <c r="C239" s="31" t="s">
         <v>861</v>
       </c>
@@ -60759,8 +60758,8 @@
       </c>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="76"/>
-      <c r="B240" s="70"/>
+      <c r="A240" s="88"/>
+      <c r="B240" s="82"/>
       <c r="C240" s="31" t="s">
         <v>863</v>
       </c>
@@ -60789,8 +60788,8 @@
       </c>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="76"/>
-      <c r="B241" s="70"/>
+      <c r="A241" s="88"/>
+      <c r="B241" s="82"/>
       <c r="C241" s="31" t="s">
         <v>865</v>
       </c>
@@ -60819,8 +60818,8 @@
       </c>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="76"/>
-      <c r="B242" s="70" t="s">
+      <c r="A242" s="88"/>
+      <c r="B242" s="82" t="s">
         <v>867</v>
       </c>
       <c r="C242" s="31" t="s">
@@ -60851,8 +60850,8 @@
       </c>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" s="76"/>
-      <c r="B243" s="70"/>
+      <c r="A243" s="88"/>
+      <c r="B243" s="82"/>
       <c r="C243" s="31" t="s">
         <v>872</v>
       </c>
@@ -60881,8 +60880,8 @@
       </c>
     </row>
     <row r="244" spans="1:9">
-      <c r="A244" s="76"/>
-      <c r="B244" s="70"/>
+      <c r="A244" s="88"/>
+      <c r="B244" s="82"/>
       <c r="C244" s="31" t="s">
         <v>874</v>
       </c>
@@ -60911,8 +60910,8 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="76"/>
-      <c r="B245" s="70"/>
+      <c r="A245" s="88"/>
+      <c r="B245" s="82"/>
       <c r="C245" s="31" t="s">
         <v>876</v>
       </c>
@@ -60941,8 +60940,8 @@
       </c>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="76"/>
-      <c r="B246" s="70"/>
+      <c r="A246" s="88"/>
+      <c r="B246" s="82"/>
       <c r="C246" s="31" t="s">
         <v>878</v>
       </c>
@@ -60971,8 +60970,8 @@
       </c>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="76"/>
-      <c r="B247" s="70"/>
+      <c r="A247" s="88"/>
+      <c r="B247" s="82"/>
       <c r="C247" s="31" t="s">
         <v>880</v>
       </c>
@@ -61001,7 +61000,7 @@
       </c>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="76"/>
+      <c r="A248" s="88"/>
       <c r="B248" s="26" t="s">
         <v>882</v>
       </c>
@@ -61033,7 +61032,7 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="76"/>
+      <c r="A249" s="88"/>
       <c r="B249" s="26"/>
       <c r="C249" s="31" t="s">
         <v>896</v>
@@ -61063,7 +61062,7 @@
       </c>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="76"/>
+      <c r="A250" s="88"/>
       <c r="B250" s="26" t="s">
         <v>909</v>
       </c>
@@ -61095,7 +61094,7 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="76"/>
+      <c r="A251" s="88"/>
       <c r="B251" s="26" t="s">
         <v>913</v>
       </c>
@@ -61127,7 +61126,7 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="76"/>
+      <c r="A252" s="88"/>
       <c r="B252" s="26" t="s">
         <v>916</v>
       </c>
@@ -61159,7 +61158,7 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="76"/>
+      <c r="A253" s="88"/>
       <c r="B253" s="26" t="s">
         <v>919</v>
       </c>
@@ -61191,7 +61190,7 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="76"/>
+      <c r="A254" s="88"/>
       <c r="B254" s="26" t="s">
         <v>923</v>
       </c>
@@ -61223,7 +61222,7 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="76"/>
+      <c r="A255" s="88"/>
       <c r="B255" s="26" t="s">
         <v>927</v>
       </c>
@@ -61255,7 +61254,7 @@
       </c>
     </row>
     <row r="256" spans="1:9">
-      <c r="A256" s="76"/>
+      <c r="A256" s="88"/>
       <c r="B256" s="26" t="s">
         <v>931</v>
       </c>
@@ -61287,7 +61286,7 @@
       </c>
     </row>
     <row r="257" spans="1:9">
-      <c r="A257" s="76"/>
+      <c r="A257" s="88"/>
       <c r="B257" s="26" t="s">
         <v>933</v>
       </c>
@@ -61319,7 +61318,7 @@
       </c>
     </row>
     <row r="258" spans="1:9">
-      <c r="A258" s="77"/>
+      <c r="A258" s="89"/>
       <c r="B258" s="26" t="s">
         <v>935</v>
       </c>
@@ -61351,7 +61350,7 @@
       </c>
     </row>
     <row r="259" spans="1:9">
-      <c r="A259" s="70" t="s">
+      <c r="A259" s="82" t="s">
         <v>938</v>
       </c>
       <c r="B259" s="26" t="s">
@@ -61385,7 +61384,7 @@
       </c>
     </row>
     <row r="260" spans="1:9">
-      <c r="A260" s="70"/>
+      <c r="A260" s="82"/>
       <c r="B260" s="26" t="s">
         <v>944</v>
       </c>
@@ -61417,7 +61416,7 @@
       </c>
     </row>
     <row r="261" spans="1:9">
-      <c r="A261" s="70"/>
+      <c r="A261" s="82"/>
       <c r="B261" s="26" t="s">
         <v>947</v>
       </c>
@@ -61449,7 +61448,7 @@
       </c>
     </row>
     <row r="262" spans="1:9">
-      <c r="A262" s="70"/>
+      <c r="A262" s="82"/>
       <c r="B262" s="26" t="s">
         <v>949</v>
       </c>
@@ -61481,7 +61480,7 @@
       </c>
     </row>
     <row r="263" spans="1:9">
-      <c r="A263" s="70"/>
+      <c r="A263" s="82"/>
       <c r="B263" s="26" t="s">
         <v>951</v>
       </c>
@@ -61513,7 +61512,7 @@
       </c>
     </row>
     <row r="264" spans="1:9">
-      <c r="A264" s="70"/>
+      <c r="A264" s="82"/>
       <c r="B264" s="26" t="s">
         <v>953</v>
       </c>
@@ -61545,7 +61544,7 @@
       </c>
     </row>
     <row r="265" spans="1:9">
-      <c r="A265" s="70"/>
+      <c r="A265" s="82"/>
       <c r="B265" s="26" t="s">
         <v>955</v>
       </c>
@@ -61577,7 +61576,7 @@
       </c>
     </row>
     <row r="266" spans="1:9">
-      <c r="A266" s="70"/>
+      <c r="A266" s="82"/>
       <c r="B266" s="26" t="s">
         <v>957</v>
       </c>
@@ -61609,7 +61608,7 @@
       </c>
     </row>
     <row r="267" spans="1:9">
-      <c r="A267" s="70"/>
+      <c r="A267" s="82"/>
       <c r="B267" s="26" t="s">
         <v>959</v>
       </c>
@@ -61641,7 +61640,7 @@
       </c>
     </row>
     <row r="268" spans="1:9">
-      <c r="A268" s="70"/>
+      <c r="A268" s="82"/>
       <c r="B268" s="26" t="s">
         <v>963</v>
       </c>
@@ -61673,7 +61672,7 @@
       </c>
     </row>
     <row r="269" spans="1:9">
-      <c r="A269" s="70"/>
+      <c r="A269" s="82"/>
       <c r="B269" s="26" t="s">
         <v>965</v>
       </c>
@@ -61705,7 +61704,7 @@
       </c>
     </row>
     <row r="270" spans="1:9">
-      <c r="A270" s="70"/>
+      <c r="A270" s="82"/>
       <c r="B270" s="26" t="s">
         <v>967</v>
       </c>
@@ -61737,7 +61736,7 @@
       </c>
     </row>
     <row r="271" spans="1:9">
-      <c r="A271" s="70" t="s">
+      <c r="A271" s="82" t="s">
         <v>969</v>
       </c>
       <c r="B271" s="26" t="s">
@@ -61771,7 +61770,7 @@
       </c>
     </row>
     <row r="272" spans="1:9">
-      <c r="A272" s="70"/>
+      <c r="A272" s="82"/>
       <c r="B272" s="26" t="s">
         <v>975</v>
       </c>
@@ -61803,7 +61802,7 @@
       </c>
     </row>
     <row r="273" spans="1:9">
-      <c r="A273" s="70"/>
+      <c r="A273" s="82"/>
       <c r="B273" s="26" t="s">
         <v>980</v>
       </c>
@@ -62209,10 +62208,10 @@
       </c>
     </row>
     <row r="285" spans="1:9">
-      <c r="A285" s="71" t="s">
+      <c r="A285" s="83" t="s">
         <v>1032</v>
       </c>
-      <c r="B285" s="71" t="s">
+      <c r="B285" s="83" t="s">
         <v>1038</v>
       </c>
       <c r="C285" s="28" t="s">
@@ -62243,8 +62242,8 @@
       </c>
     </row>
     <row r="286" spans="1:9">
-      <c r="A286" s="71"/>
-      <c r="B286" s="71"/>
+      <c r="A286" s="83"/>
+      <c r="B286" s="83"/>
       <c r="C286" s="28" t="s">
         <v>622</v>
       </c>
@@ -62273,8 +62272,8 @@
       </c>
     </row>
     <row r="287" spans="1:9">
-      <c r="A287" s="71"/>
-      <c r="B287" s="71"/>
+      <c r="A287" s="83"/>
+      <c r="B287" s="83"/>
       <c r="C287" s="28" t="s">
         <v>626</v>
       </c>
@@ -62303,8 +62302,8 @@
       </c>
     </row>
     <row r="288" spans="1:9">
-      <c r="A288" s="71"/>
-      <c r="B288" s="71"/>
+      <c r="A288" s="83"/>
+      <c r="B288" s="83"/>
       <c r="C288" s="28" t="s">
         <v>628</v>
       </c>
@@ -62333,8 +62332,8 @@
       </c>
     </row>
     <row r="289" spans="1:9">
-      <c r="A289" s="71"/>
-      <c r="B289" s="71"/>
+      <c r="A289" s="83"/>
+      <c r="B289" s="83"/>
       <c r="C289" s="28" t="s">
         <v>630</v>
       </c>
@@ -62363,8 +62362,8 @@
       </c>
     </row>
     <row r="290" spans="1:9">
-      <c r="A290" s="71"/>
-      <c r="B290" s="71"/>
+      <c r="A290" s="83"/>
+      <c r="B290" s="83"/>
       <c r="C290" s="28" t="s">
         <v>632</v>
       </c>
@@ -62393,8 +62392,8 @@
       </c>
     </row>
     <row r="291" spans="1:9">
-      <c r="A291" s="71"/>
-      <c r="B291" s="71"/>
+      <c r="A291" s="83"/>
+      <c r="B291" s="83"/>
       <c r="C291" s="28" t="s">
         <v>634</v>
       </c>
@@ -62423,8 +62422,8 @@
       </c>
     </row>
     <row r="292" spans="1:9">
-      <c r="A292" s="71"/>
-      <c r="B292" s="71"/>
+      <c r="A292" s="83"/>
+      <c r="B292" s="83"/>
       <c r="C292" s="28" t="s">
         <v>636</v>
       </c>
@@ -62453,8 +62452,8 @@
       </c>
     </row>
     <row r="293" spans="1:9">
-      <c r="A293" s="71"/>
-      <c r="B293" s="71" t="s">
+      <c r="A293" s="83"/>
+      <c r="B293" s="83" t="s">
         <v>1050</v>
       </c>
       <c r="C293" s="28" t="s">
@@ -62485,8 +62484,8 @@
       </c>
     </row>
     <row r="294" spans="1:9">
-      <c r="A294" s="71"/>
-      <c r="B294" s="71"/>
+      <c r="A294" s="83"/>
+      <c r="B294" s="83"/>
       <c r="C294" s="28" t="s">
         <v>622</v>
       </c>
@@ -62515,8 +62514,8 @@
       </c>
     </row>
     <row r="295" spans="1:9">
-      <c r="A295" s="71"/>
-      <c r="B295" s="71"/>
+      <c r="A295" s="83"/>
+      <c r="B295" s="83"/>
       <c r="C295" s="28" t="s">
         <v>626</v>
       </c>
@@ -62545,8 +62544,8 @@
       </c>
     </row>
     <row r="296" spans="1:9">
-      <c r="A296" s="71"/>
-      <c r="B296" s="71"/>
+      <c r="A296" s="83"/>
+      <c r="B296" s="83"/>
       <c r="C296" s="28" t="s">
         <v>628</v>
       </c>
@@ -62575,8 +62574,8 @@
       </c>
     </row>
     <row r="297" spans="1:9">
-      <c r="A297" s="71"/>
-      <c r="B297" s="71"/>
+      <c r="A297" s="83"/>
+      <c r="B297" s="83"/>
       <c r="C297" s="28" t="s">
         <v>630</v>
       </c>
@@ -62605,8 +62604,8 @@
       </c>
     </row>
     <row r="298" spans="1:9">
-      <c r="A298" s="71"/>
-      <c r="B298" s="71"/>
+      <c r="A298" s="83"/>
+      <c r="B298" s="83"/>
       <c r="C298" s="28" t="s">
         <v>632</v>
       </c>
@@ -62635,8 +62634,8 @@
       </c>
     </row>
     <row r="299" spans="1:9">
-      <c r="A299" s="71"/>
-      <c r="B299" s="71"/>
+      <c r="A299" s="83"/>
+      <c r="B299" s="83"/>
       <c r="C299" s="28" t="s">
         <v>634</v>
       </c>
@@ -62665,8 +62664,8 @@
       </c>
     </row>
     <row r="300" spans="1:9">
-      <c r="A300" s="71"/>
-      <c r="B300" s="71"/>
+      <c r="A300" s="83"/>
+      <c r="B300" s="83"/>
       <c r="C300" s="28" t="s">
         <v>636</v>
       </c>
@@ -62695,8 +62694,8 @@
       </c>
     </row>
     <row r="301" spans="1:9">
-      <c r="A301" s="71"/>
-      <c r="B301" s="71" t="s">
+      <c r="A301" s="83"/>
+      <c r="B301" s="83" t="s">
         <v>1061</v>
       </c>
       <c r="C301" s="28" t="s">
@@ -62727,8 +62726,8 @@
       </c>
     </row>
     <row r="302" spans="1:9">
-      <c r="A302" s="71"/>
-      <c r="B302" s="71"/>
+      <c r="A302" s="83"/>
+      <c r="B302" s="83"/>
       <c r="C302" s="28" t="s">
         <v>622</v>
       </c>
@@ -62757,8 +62756,8 @@
       </c>
     </row>
     <row r="303" spans="1:9">
-      <c r="A303" s="71"/>
-      <c r="B303" s="71"/>
+      <c r="A303" s="83"/>
+      <c r="B303" s="83"/>
       <c r="C303" s="28" t="s">
         <v>626</v>
       </c>
@@ -62787,8 +62786,8 @@
       </c>
     </row>
     <row r="304" spans="1:9">
-      <c r="A304" s="71"/>
-      <c r="B304" s="71"/>
+      <c r="A304" s="83"/>
+      <c r="B304" s="83"/>
       <c r="C304" s="28" t="s">
         <v>628</v>
       </c>
@@ -62817,8 +62816,8 @@
       </c>
     </row>
     <row r="305" spans="1:9">
-      <c r="A305" s="71"/>
-      <c r="B305" s="71"/>
+      <c r="A305" s="83"/>
+      <c r="B305" s="83"/>
       <c r="C305" s="28" t="s">
         <v>630</v>
       </c>
@@ -62847,8 +62846,8 @@
       </c>
     </row>
     <row r="306" spans="1:9">
-      <c r="A306" s="71"/>
-      <c r="B306" s="71"/>
+      <c r="A306" s="83"/>
+      <c r="B306" s="83"/>
       <c r="C306" s="28" t="s">
         <v>632</v>
       </c>
@@ -62877,8 +62876,8 @@
       </c>
     </row>
     <row r="307" spans="1:9">
-      <c r="A307" s="71"/>
-      <c r="B307" s="71"/>
+      <c r="A307" s="83"/>
+      <c r="B307" s="83"/>
       <c r="C307" s="28" t="s">
         <v>634</v>
       </c>
@@ -62907,8 +62906,8 @@
       </c>
     </row>
     <row r="308" spans="1:9">
-      <c r="A308" s="71"/>
-      <c r="B308" s="71"/>
+      <c r="A308" s="83"/>
+      <c r="B308" s="83"/>
       <c r="C308" s="28" t="s">
         <v>636</v>
       </c>
@@ -62937,8 +62936,8 @@
       </c>
     </row>
     <row r="309" spans="1:9">
-      <c r="A309" s="71"/>
-      <c r="B309" s="71" t="s">
+      <c r="A309" s="83"/>
+      <c r="B309" s="83" t="s">
         <v>1072</v>
       </c>
       <c r="C309" s="28" t="s">
@@ -62969,8 +62968,8 @@
       </c>
     </row>
     <row r="310" spans="1:9">
-      <c r="A310" s="71"/>
-      <c r="B310" s="71"/>
+      <c r="A310" s="83"/>
+      <c r="B310" s="83"/>
       <c r="C310" s="28" t="s">
         <v>622</v>
       </c>
@@ -62999,8 +62998,8 @@
       </c>
     </row>
     <row r="311" spans="1:9">
-      <c r="A311" s="71"/>
-      <c r="B311" s="71"/>
+      <c r="A311" s="83"/>
+      <c r="B311" s="83"/>
       <c r="C311" s="28" t="s">
         <v>626</v>
       </c>
@@ -63029,8 +63028,8 @@
       </c>
     </row>
     <row r="312" spans="1:9">
-      <c r="A312" s="71"/>
-      <c r="B312" s="71"/>
+      <c r="A312" s="83"/>
+      <c r="B312" s="83"/>
       <c r="C312" s="28" t="s">
         <v>628</v>
       </c>
@@ -63059,8 +63058,8 @@
       </c>
     </row>
     <row r="313" spans="1:9">
-      <c r="A313" s="71"/>
-      <c r="B313" s="71"/>
+      <c r="A313" s="83"/>
+      <c r="B313" s="83"/>
       <c r="C313" s="28" t="s">
         <v>630</v>
       </c>
@@ -63089,8 +63088,8 @@
       </c>
     </row>
     <row r="314" spans="1:9">
-      <c r="A314" s="71"/>
-      <c r="B314" s="71"/>
+      <c r="A314" s="83"/>
+      <c r="B314" s="83"/>
       <c r="C314" s="28" t="s">
         <v>632</v>
       </c>
@@ -63119,8 +63118,8 @@
       </c>
     </row>
     <row r="315" spans="1:9">
-      <c r="A315" s="71"/>
-      <c r="B315" s="71"/>
+      <c r="A315" s="83"/>
+      <c r="B315" s="83"/>
       <c r="C315" s="28" t="s">
         <v>634</v>
       </c>
@@ -63149,8 +63148,8 @@
       </c>
     </row>
     <row r="316" spans="1:9">
-      <c r="A316" s="71"/>
-      <c r="B316" s="71"/>
+      <c r="A316" s="83"/>
+      <c r="B316" s="83"/>
       <c r="C316" s="28" t="s">
         <v>636</v>
       </c>
@@ -63179,10 +63178,10 @@
       </c>
     </row>
     <row r="317" spans="1:9">
-      <c r="A317" s="71" t="s">
+      <c r="A317" s="83" t="s">
         <v>1083</v>
       </c>
-      <c r="B317" s="71" t="s">
+      <c r="B317" s="83" t="s">
         <v>1086</v>
       </c>
       <c r="C317" s="28" t="s">
@@ -63213,8 +63212,8 @@
       </c>
     </row>
     <row r="318" spans="1:9">
-      <c r="A318" s="71"/>
-      <c r="B318" s="71"/>
+      <c r="A318" s="83"/>
+      <c r="B318" s="83"/>
       <c r="C318" s="28" t="s">
         <v>622</v>
       </c>
@@ -63243,8 +63242,8 @@
       </c>
     </row>
     <row r="319" spans="1:9">
-      <c r="A319" s="71"/>
-      <c r="B319" s="71"/>
+      <c r="A319" s="83"/>
+      <c r="B319" s="83"/>
       <c r="C319" s="28" t="s">
         <v>626</v>
       </c>
@@ -63273,8 +63272,8 @@
       </c>
     </row>
     <row r="320" spans="1:9">
-      <c r="A320" s="71"/>
-      <c r="B320" s="71"/>
+      <c r="A320" s="83"/>
+      <c r="B320" s="83"/>
       <c r="C320" s="28" t="s">
         <v>628</v>
       </c>
@@ -63303,8 +63302,8 @@
       </c>
     </row>
     <row r="321" spans="1:9">
-      <c r="A321" s="71"/>
-      <c r="B321" s="71"/>
+      <c r="A321" s="83"/>
+      <c r="B321" s="83"/>
       <c r="C321" s="28" t="s">
         <v>630</v>
       </c>
@@ -63333,8 +63332,8 @@
       </c>
     </row>
     <row r="322" spans="1:9">
-      <c r="A322" s="71"/>
-      <c r="B322" s="71"/>
+      <c r="A322" s="83"/>
+      <c r="B322" s="83"/>
       <c r="C322" s="28" t="s">
         <v>632</v>
       </c>
@@ -63363,8 +63362,8 @@
       </c>
     </row>
     <row r="323" spans="1:9">
-      <c r="A323" s="71"/>
-      <c r="B323" s="71"/>
+      <c r="A323" s="83"/>
+      <c r="B323" s="83"/>
       <c r="C323" s="28" t="s">
         <v>634</v>
       </c>
@@ -63393,8 +63392,8 @@
       </c>
     </row>
     <row r="324" spans="1:9">
-      <c r="A324" s="71"/>
-      <c r="B324" s="71"/>
+      <c r="A324" s="83"/>
+      <c r="B324" s="83"/>
       <c r="C324" s="28" t="s">
         <v>636</v>
       </c>
@@ -63423,8 +63422,8 @@
       </c>
     </row>
     <row r="325" spans="1:9">
-      <c r="A325" s="71"/>
-      <c r="B325" s="71" t="s">
+      <c r="A325" s="83"/>
+      <c r="B325" s="83" t="s">
         <v>1100</v>
       </c>
       <c r="C325" s="28" t="s">
@@ -63455,8 +63454,8 @@
       </c>
     </row>
     <row r="326" spans="1:9">
-      <c r="A326" s="71"/>
-      <c r="B326" s="71"/>
+      <c r="A326" s="83"/>
+      <c r="B326" s="83"/>
       <c r="C326" s="28" t="s">
         <v>622</v>
       </c>
@@ -63485,8 +63484,8 @@
       </c>
     </row>
     <row r="327" spans="1:9">
-      <c r="A327" s="71"/>
-      <c r="B327" s="71"/>
+      <c r="A327" s="83"/>
+      <c r="B327" s="83"/>
       <c r="C327" s="28" t="s">
         <v>626</v>
       </c>
@@ -63515,8 +63514,8 @@
       </c>
     </row>
     <row r="328" spans="1:9">
-      <c r="A328" s="71"/>
-      <c r="B328" s="71"/>
+      <c r="A328" s="83"/>
+      <c r="B328" s="83"/>
       <c r="C328" s="28" t="s">
         <v>628</v>
       </c>
@@ -63545,8 +63544,8 @@
       </c>
     </row>
     <row r="329" spans="1:9">
-      <c r="A329" s="71"/>
-      <c r="B329" s="71"/>
+      <c r="A329" s="83"/>
+      <c r="B329" s="83"/>
       <c r="C329" s="28" t="s">
         <v>630</v>
       </c>
@@ -63575,8 +63574,8 @@
       </c>
     </row>
     <row r="330" spans="1:9">
-      <c r="A330" s="71"/>
-      <c r="B330" s="71"/>
+      <c r="A330" s="83"/>
+      <c r="B330" s="83"/>
       <c r="C330" s="28" t="s">
         <v>632</v>
       </c>
@@ -63605,8 +63604,8 @@
       </c>
     </row>
     <row r="331" spans="1:9">
-      <c r="A331" s="71"/>
-      <c r="B331" s="71"/>
+      <c r="A331" s="83"/>
+      <c r="B331" s="83"/>
       <c r="C331" s="28" t="s">
         <v>634</v>
       </c>
@@ -63635,8 +63634,8 @@
       </c>
     </row>
     <row r="332" spans="1:9">
-      <c r="A332" s="71"/>
-      <c r="B332" s="71"/>
+      <c r="A332" s="83"/>
+      <c r="B332" s="83"/>
       <c r="C332" s="28" t="s">
         <v>636</v>
       </c>
@@ -63665,10 +63664,10 @@
       </c>
     </row>
     <row r="333" spans="1:9">
-      <c r="A333" s="72" t="s">
+      <c r="A333" s="84" t="s">
         <v>1110</v>
       </c>
-      <c r="B333" s="72" t="s">
+      <c r="B333" s="84" t="s">
         <v>1114</v>
       </c>
       <c r="C333" s="28" t="s">
@@ -63699,8 +63698,8 @@
       </c>
     </row>
     <row r="334" spans="1:9">
-      <c r="A334" s="73"/>
-      <c r="B334" s="73"/>
+      <c r="A334" s="85"/>
+      <c r="B334" s="85"/>
       <c r="C334" s="28" t="s">
         <v>1123</v>
       </c>
@@ -63729,8 +63728,8 @@
       </c>
     </row>
     <row r="335" spans="1:9">
-      <c r="A335" s="73"/>
-      <c r="B335" s="73"/>
+      <c r="A335" s="85"/>
+      <c r="B335" s="85"/>
       <c r="C335" s="28" t="s">
         <v>1125</v>
       </c>
@@ -63759,8 +63758,8 @@
       </c>
     </row>
     <row r="336" spans="1:9">
-      <c r="A336" s="73"/>
-      <c r="B336" s="74"/>
+      <c r="A336" s="85"/>
+      <c r="B336" s="86"/>
       <c r="C336" s="28" t="s">
         <v>1127</v>
       </c>
@@ -63789,8 +63788,8 @@
       </c>
     </row>
     <row r="337" spans="1:9">
-      <c r="A337" s="73"/>
-      <c r="B337" s="72" t="s">
+      <c r="A337" s="85"/>
+      <c r="B337" s="84" t="s">
         <v>1129</v>
       </c>
       <c r="C337" s="28" t="s">
@@ -63821,8 +63820,8 @@
       </c>
     </row>
     <row r="338" spans="1:9">
-      <c r="A338" s="73"/>
-      <c r="B338" s="73"/>
+      <c r="A338" s="85"/>
+      <c r="B338" s="85"/>
       <c r="C338" s="28" t="s">
         <v>1133</v>
       </c>
@@ -63851,8 +63850,8 @@
       </c>
     </row>
     <row r="339" spans="1:9">
-      <c r="A339" s="73"/>
-      <c r="B339" s="73"/>
+      <c r="A339" s="85"/>
+      <c r="B339" s="85"/>
       <c r="C339" s="28" t="s">
         <v>1135</v>
       </c>
@@ -63881,8 +63880,8 @@
       </c>
     </row>
     <row r="340" spans="1:9">
-      <c r="A340" s="73"/>
-      <c r="B340" s="73"/>
+      <c r="A340" s="85"/>
+      <c r="B340" s="85"/>
       <c r="C340" s="28" t="s">
         <v>1123</v>
       </c>
@@ -63911,8 +63910,8 @@
       </c>
     </row>
     <row r="341" spans="1:9">
-      <c r="A341" s="73"/>
-      <c r="B341" s="73"/>
+      <c r="A341" s="85"/>
+      <c r="B341" s="85"/>
       <c r="C341" s="28" t="s">
         <v>1125</v>
       </c>
@@ -63941,8 +63940,8 @@
       </c>
     </row>
     <row r="342" spans="1:9">
-      <c r="A342" s="74"/>
-      <c r="B342" s="74"/>
+      <c r="A342" s="86"/>
+      <c r="B342" s="86"/>
       <c r="C342" s="28" t="s">
         <v>1139</v>
       </c>
@@ -63971,7 +63970,7 @@
       </c>
     </row>
     <row r="343" spans="1:9">
-      <c r="A343" s="70" t="s">
+      <c r="A343" s="82" t="s">
         <v>1146</v>
       </c>
       <c r="B343" s="26" t="s">
@@ -64005,7 +64004,7 @@
       </c>
     </row>
     <row r="344" spans="1:9">
-      <c r="A344" s="70"/>
+      <c r="A344" s="82"/>
       <c r="B344" s="26" t="s">
         <v>626</v>
       </c>
@@ -64037,7 +64036,7 @@
       </c>
     </row>
     <row r="345" spans="1:9">
-      <c r="A345" s="70"/>
+      <c r="A345" s="82"/>
       <c r="B345" s="26" t="s">
         <v>628</v>
       </c>
@@ -64069,7 +64068,7 @@
       </c>
     </row>
     <row r="346" spans="1:9">
-      <c r="A346" s="70"/>
+      <c r="A346" s="82"/>
       <c r="B346" s="26" t="s">
         <v>630</v>
       </c>
@@ -64101,7 +64100,7 @@
       </c>
     </row>
     <row r="347" spans="1:9">
-      <c r="A347" s="70"/>
+      <c r="A347" s="82"/>
       <c r="B347" s="26" t="s">
         <v>632</v>
       </c>
@@ -64133,7 +64132,7 @@
       </c>
     </row>
     <row r="348" spans="1:9">
-      <c r="A348" s="70"/>
+      <c r="A348" s="82"/>
       <c r="B348" s="26" t="s">
         <v>634</v>
       </c>
@@ -64165,7 +64164,7 @@
       </c>
     </row>
     <row r="349" spans="1:9">
-      <c r="A349" s="70"/>
+      <c r="A349" s="82"/>
       <c r="B349" s="26" t="s">
         <v>1159</v>
       </c>
@@ -64197,7 +64196,7 @@
       </c>
     </row>
     <row r="350" spans="1:9">
-      <c r="A350" s="70"/>
+      <c r="A350" s="82"/>
       <c r="B350" s="26" t="s">
         <v>1162</v>
       </c>
@@ -64229,7 +64228,7 @@
       </c>
     </row>
     <row r="351" spans="1:9">
-      <c r="A351" s="70"/>
+      <c r="A351" s="82"/>
       <c r="B351" s="26" t="s">
         <v>1164</v>
       </c>
@@ -64261,10 +64260,10 @@
       </c>
     </row>
     <row r="352" spans="1:9">
-      <c r="A352" s="70" t="s">
+      <c r="A352" s="82" t="s">
         <v>1166</v>
       </c>
-      <c r="B352" s="70" t="s">
+      <c r="B352" s="82" t="s">
         <v>1171</v>
       </c>
       <c r="C352" s="31" t="s">
@@ -64295,8 +64294,8 @@
       </c>
     </row>
     <row r="353" spans="1:9">
-      <c r="A353" s="70"/>
-      <c r="B353" s="70"/>
+      <c r="A353" s="82"/>
+      <c r="B353" s="82"/>
       <c r="C353" s="31" t="s">
         <v>622</v>
       </c>
@@ -64325,8 +64324,8 @@
       </c>
     </row>
     <row r="354" spans="1:9">
-      <c r="A354" s="70"/>
-      <c r="B354" s="70"/>
+      <c r="A354" s="82"/>
+      <c r="B354" s="82"/>
       <c r="C354" s="31" t="s">
         <v>626</v>
       </c>
@@ -64355,8 +64354,8 @@
       </c>
     </row>
     <row r="355" spans="1:9">
-      <c r="A355" s="70"/>
-      <c r="B355" s="70"/>
+      <c r="A355" s="82"/>
+      <c r="B355" s="82"/>
       <c r="C355" s="31" t="s">
         <v>628</v>
       </c>
@@ -64385,8 +64384,8 @@
       </c>
     </row>
     <row r="356" spans="1:9">
-      <c r="A356" s="70"/>
-      <c r="B356" s="70"/>
+      <c r="A356" s="82"/>
+      <c r="B356" s="82"/>
       <c r="C356" s="31" t="s">
         <v>630</v>
       </c>
@@ -64415,8 +64414,8 @@
       </c>
     </row>
     <row r="357" spans="1:9">
-      <c r="A357" s="70"/>
-      <c r="B357" s="70"/>
+      <c r="A357" s="82"/>
+      <c r="B357" s="82"/>
       <c r="C357" s="31" t="s">
         <v>632</v>
       </c>
@@ -64445,8 +64444,8 @@
       </c>
     </row>
     <row r="358" spans="1:9">
-      <c r="A358" s="70"/>
-      <c r="B358" s="70"/>
+      <c r="A358" s="82"/>
+      <c r="B358" s="82"/>
       <c r="C358" s="31" t="s">
         <v>634</v>
       </c>
@@ -64475,8 +64474,8 @@
       </c>
     </row>
     <row r="359" spans="1:9">
-      <c r="A359" s="70"/>
-      <c r="B359" s="70"/>
+      <c r="A359" s="82"/>
+      <c r="B359" s="82"/>
       <c r="C359" s="31" t="s">
         <v>636</v>
       </c>
@@ -64505,8 +64504,8 @@
       </c>
     </row>
     <row r="360" spans="1:9">
-      <c r="A360" s="70"/>
-      <c r="B360" s="70" t="s">
+      <c r="A360" s="82"/>
+      <c r="B360" s="82" t="s">
         <v>1183</v>
       </c>
       <c r="C360" s="31" t="s">
@@ -64537,8 +64536,8 @@
       </c>
     </row>
     <row r="361" spans="1:9">
-      <c r="A361" s="70"/>
-      <c r="B361" s="70"/>
+      <c r="A361" s="82"/>
+      <c r="B361" s="82"/>
       <c r="C361" s="31" t="s">
         <v>622</v>
       </c>
@@ -64567,8 +64566,8 @@
       </c>
     </row>
     <row r="362" spans="1:9">
-      <c r="A362" s="70"/>
-      <c r="B362" s="70"/>
+      <c r="A362" s="82"/>
+      <c r="B362" s="82"/>
       <c r="C362" s="31" t="s">
         <v>626</v>
       </c>
@@ -64597,8 +64596,8 @@
       </c>
     </row>
     <row r="363" spans="1:9">
-      <c r="A363" s="70"/>
-      <c r="B363" s="70"/>
+      <c r="A363" s="82"/>
+      <c r="B363" s="82"/>
       <c r="C363" s="31" t="s">
         <v>628</v>
       </c>
@@ -64627,8 +64626,8 @@
       </c>
     </row>
     <row r="364" spans="1:9">
-      <c r="A364" s="70"/>
-      <c r="B364" s="70"/>
+      <c r="A364" s="82"/>
+      <c r="B364" s="82"/>
       <c r="C364" s="31" t="s">
         <v>630</v>
       </c>
@@ -64657,8 +64656,8 @@
       </c>
     </row>
     <row r="365" spans="1:9">
-      <c r="A365" s="70"/>
-      <c r="B365" s="70"/>
+      <c r="A365" s="82"/>
+      <c r="B365" s="82"/>
       <c r="C365" s="31" t="s">
         <v>632</v>
       </c>
@@ -64687,8 +64686,8 @@
       </c>
     </row>
     <row r="366" spans="1:9">
-      <c r="A366" s="70"/>
-      <c r="B366" s="70"/>
+      <c r="A366" s="82"/>
+      <c r="B366" s="82"/>
       <c r="C366" s="31" t="s">
         <v>634</v>
       </c>
@@ -64717,8 +64716,8 @@
       </c>
     </row>
     <row r="367" spans="1:9">
-      <c r="A367" s="70"/>
-      <c r="B367" s="70"/>
+      <c r="A367" s="82"/>
+      <c r="B367" s="82"/>
       <c r="C367" s="31" t="s">
         <v>636</v>
       </c>
@@ -64747,8 +64746,8 @@
       </c>
     </row>
     <row r="368" spans="1:9">
-      <c r="A368" s="70"/>
-      <c r="B368" s="70" t="s">
+      <c r="A368" s="82"/>
+      <c r="B368" s="82" t="s">
         <v>1193</v>
       </c>
       <c r="C368" s="31" t="s">
@@ -64779,8 +64778,8 @@
       </c>
     </row>
     <row r="369" spans="1:9">
-      <c r="A369" s="70"/>
-      <c r="B369" s="70"/>
+      <c r="A369" s="82"/>
+      <c r="B369" s="82"/>
       <c r="C369" s="31" t="s">
         <v>622</v>
       </c>
@@ -64809,8 +64808,8 @@
       </c>
     </row>
     <row r="370" spans="1:9">
-      <c r="A370" s="70"/>
-      <c r="B370" s="70"/>
+      <c r="A370" s="82"/>
+      <c r="B370" s="82"/>
       <c r="C370" s="31" t="s">
         <v>626</v>
       </c>
@@ -64839,8 +64838,8 @@
       </c>
     </row>
     <row r="371" spans="1:9">
-      <c r="A371" s="70"/>
-      <c r="B371" s="70"/>
+      <c r="A371" s="82"/>
+      <c r="B371" s="82"/>
       <c r="C371" s="31" t="s">
         <v>628</v>
       </c>
@@ -64869,8 +64868,8 @@
       </c>
     </row>
     <row r="372" spans="1:9">
-      <c r="A372" s="70"/>
-      <c r="B372" s="70"/>
+      <c r="A372" s="82"/>
+      <c r="B372" s="82"/>
       <c r="C372" s="31" t="s">
         <v>630</v>
       </c>
@@ -64899,8 +64898,8 @@
       </c>
     </row>
     <row r="373" spans="1:9">
-      <c r="A373" s="70"/>
-      <c r="B373" s="70"/>
+      <c r="A373" s="82"/>
+      <c r="B373" s="82"/>
       <c r="C373" s="31" t="s">
         <v>632</v>
       </c>
@@ -64929,8 +64928,8 @@
       </c>
     </row>
     <row r="374" spans="1:9">
-      <c r="A374" s="70"/>
-      <c r="B374" s="70"/>
+      <c r="A374" s="82"/>
+      <c r="B374" s="82"/>
       <c r="C374" s="31" t="s">
         <v>634</v>
       </c>
@@ -64959,8 +64958,8 @@
       </c>
     </row>
     <row r="375" spans="1:9">
-      <c r="A375" s="70"/>
-      <c r="B375" s="70"/>
+      <c r="A375" s="82"/>
+      <c r="B375" s="82"/>
       <c r="C375" s="31" t="s">
         <v>636</v>
       </c>
@@ -64989,8 +64988,8 @@
       </c>
     </row>
     <row r="376" spans="1:9">
-      <c r="A376" s="70"/>
-      <c r="B376" s="70" t="s">
+      <c r="A376" s="82"/>
+      <c r="B376" s="82" t="s">
         <v>1208</v>
       </c>
       <c r="C376" s="31" t="s">
@@ -65021,8 +65020,8 @@
       </c>
     </row>
     <row r="377" spans="1:9">
-      <c r="A377" s="70"/>
-      <c r="B377" s="70"/>
+      <c r="A377" s="82"/>
+      <c r="B377" s="82"/>
       <c r="C377" s="31" t="s">
         <v>622</v>
       </c>
@@ -65051,8 +65050,8 @@
       </c>
     </row>
     <row r="378" spans="1:9">
-      <c r="A378" s="70"/>
-      <c r="B378" s="70"/>
+      <c r="A378" s="82"/>
+      <c r="B378" s="82"/>
       <c r="C378" s="31" t="s">
         <v>626</v>
       </c>
@@ -65081,8 +65080,8 @@
       </c>
     </row>
     <row r="379" spans="1:9">
-      <c r="A379" s="70"/>
-      <c r="B379" s="70"/>
+      <c r="A379" s="82"/>
+      <c r="B379" s="82"/>
       <c r="C379" s="31" t="s">
         <v>628</v>
       </c>
@@ -65111,8 +65110,8 @@
       </c>
     </row>
     <row r="380" spans="1:9">
-      <c r="A380" s="70"/>
-      <c r="B380" s="70"/>
+      <c r="A380" s="82"/>
+      <c r="B380" s="82"/>
       <c r="C380" s="31" t="s">
         <v>630</v>
       </c>
@@ -65141,8 +65140,8 @@
       </c>
     </row>
     <row r="381" spans="1:9">
-      <c r="A381" s="70"/>
-      <c r="B381" s="70"/>
+      <c r="A381" s="82"/>
+      <c r="B381" s="82"/>
       <c r="C381" s="31" t="s">
         <v>632</v>
       </c>
@@ -65171,8 +65170,8 @@
       </c>
     </row>
     <row r="382" spans="1:9">
-      <c r="A382" s="70"/>
-      <c r="B382" s="70"/>
+      <c r="A382" s="82"/>
+      <c r="B382" s="82"/>
       <c r="C382" s="31" t="s">
         <v>634</v>
       </c>
@@ -65201,8 +65200,8 @@
       </c>
     </row>
     <row r="383" spans="1:9">
-      <c r="A383" s="70"/>
-      <c r="B383" s="70"/>
+      <c r="A383" s="82"/>
+      <c r="B383" s="82"/>
       <c r="C383" s="31" t="s">
         <v>636</v>
       </c>
@@ -65231,8 +65230,8 @@
       </c>
     </row>
     <row r="384" spans="1:9">
-      <c r="A384" s="70"/>
-      <c r="B384" s="70" t="s">
+      <c r="A384" s="82"/>
+      <c r="B384" s="82" t="s">
         <v>1218</v>
       </c>
       <c r="C384" s="31" t="s">
@@ -65263,8 +65262,8 @@
       </c>
     </row>
     <row r="385" spans="1:9">
-      <c r="A385" s="70"/>
-      <c r="B385" s="70"/>
+      <c r="A385" s="82"/>
+      <c r="B385" s="82"/>
       <c r="C385" s="31" t="s">
         <v>622</v>
       </c>
@@ -65293,8 +65292,8 @@
       </c>
     </row>
     <row r="386" spans="1:9">
-      <c r="A386" s="70"/>
-      <c r="B386" s="70"/>
+      <c r="A386" s="82"/>
+      <c r="B386" s="82"/>
       <c r="C386" s="31" t="s">
         <v>626</v>
       </c>
@@ -65323,8 +65322,8 @@
       </c>
     </row>
     <row r="387" spans="1:9">
-      <c r="A387" s="70"/>
-      <c r="B387" s="70"/>
+      <c r="A387" s="82"/>
+      <c r="B387" s="82"/>
       <c r="C387" s="31" t="s">
         <v>628</v>
       </c>
@@ -65353,8 +65352,8 @@
       </c>
     </row>
     <row r="388" spans="1:9">
-      <c r="A388" s="70"/>
-      <c r="B388" s="70"/>
+      <c r="A388" s="82"/>
+      <c r="B388" s="82"/>
       <c r="C388" s="31" t="s">
         <v>630</v>
       </c>
@@ -65383,8 +65382,8 @@
       </c>
     </row>
     <row r="389" spans="1:9">
-      <c r="A389" s="70"/>
-      <c r="B389" s="70"/>
+      <c r="A389" s="82"/>
+      <c r="B389" s="82"/>
       <c r="C389" s="31" t="s">
         <v>632</v>
       </c>
@@ -65413,8 +65412,8 @@
       </c>
     </row>
     <row r="390" spans="1:9">
-      <c r="A390" s="70"/>
-      <c r="B390" s="70"/>
+      <c r="A390" s="82"/>
+      <c r="B390" s="82"/>
       <c r="C390" s="31" t="s">
         <v>634</v>
       </c>
@@ -65443,8 +65442,8 @@
       </c>
     </row>
     <row r="391" spans="1:9">
-      <c r="A391" s="70"/>
-      <c r="B391" s="70"/>
+      <c r="A391" s="82"/>
+      <c r="B391" s="82"/>
       <c r="C391" s="31" t="s">
         <v>636</v>
       </c>
@@ -65473,10 +65472,10 @@
       </c>
     </row>
     <row r="392" spans="1:9">
-      <c r="A392" s="70" t="s">
+      <c r="A392" s="82" t="s">
         <v>1241</v>
       </c>
-      <c r="B392" s="70" t="s">
+      <c r="B392" s="82" t="s">
         <v>1244</v>
       </c>
       <c r="C392" s="31" t="s">
@@ -65507,8 +65506,8 @@
       </c>
     </row>
     <row r="393" spans="1:9">
-      <c r="A393" s="70"/>
-      <c r="B393" s="70"/>
+      <c r="A393" s="82"/>
+      <c r="B393" s="82"/>
       <c r="C393" s="31" t="s">
         <v>1249</v>
       </c>
@@ -65537,8 +65536,8 @@
       </c>
     </row>
     <row r="394" spans="1:9">
-      <c r="A394" s="70"/>
-      <c r="B394" s="70"/>
+      <c r="A394" s="82"/>
+      <c r="B394" s="82"/>
       <c r="C394" s="31" t="s">
         <v>1251</v>
       </c>
@@ -65567,8 +65566,8 @@
       </c>
     </row>
     <row r="395" spans="1:9">
-      <c r="A395" s="70"/>
-      <c r="B395" s="70"/>
+      <c r="A395" s="82"/>
+      <c r="B395" s="82"/>
       <c r="C395" s="31" t="s">
         <v>1253</v>
       </c>
@@ -65597,8 +65596,8 @@
       </c>
     </row>
     <row r="396" spans="1:9">
-      <c r="A396" s="70"/>
-      <c r="B396" s="70"/>
+      <c r="A396" s="82"/>
+      <c r="B396" s="82"/>
       <c r="C396" s="31" t="s">
         <v>1255</v>
       </c>
@@ -65627,8 +65626,8 @@
       </c>
     </row>
     <row r="397" spans="1:9">
-      <c r="A397" s="70"/>
-      <c r="B397" s="70"/>
+      <c r="A397" s="82"/>
+      <c r="B397" s="82"/>
       <c r="C397" s="31" t="s">
         <v>1257</v>
       </c>
@@ -65657,8 +65656,8 @@
       </c>
     </row>
     <row r="398" spans="1:9">
-      <c r="A398" s="70"/>
-      <c r="B398" s="70"/>
+      <c r="A398" s="82"/>
+      <c r="B398" s="82"/>
       <c r="C398" s="31" t="s">
         <v>1261</v>
       </c>
@@ -65687,8 +65686,8 @@
       </c>
     </row>
     <row r="399" spans="1:9">
-      <c r="A399" s="70"/>
-      <c r="B399" s="70" t="s">
+      <c r="A399" s="82"/>
+      <c r="B399" s="82" t="s">
         <v>1263</v>
       </c>
       <c r="C399" s="31" t="s">
@@ -65719,8 +65718,8 @@
       </c>
     </row>
     <row r="400" spans="1:9">
-      <c r="A400" s="70"/>
-      <c r="B400" s="70"/>
+      <c r="A400" s="82"/>
+      <c r="B400" s="82"/>
       <c r="C400" s="31" t="s">
         <v>1249</v>
       </c>
@@ -65749,8 +65748,8 @@
       </c>
     </row>
     <row r="401" spans="1:9">
-      <c r="A401" s="70"/>
-      <c r="B401" s="70"/>
+      <c r="A401" s="82"/>
+      <c r="B401" s="82"/>
       <c r="C401" s="31" t="s">
         <v>1251</v>
       </c>
@@ -65779,8 +65778,8 @@
       </c>
     </row>
     <row r="402" spans="1:9">
-      <c r="A402" s="70"/>
-      <c r="B402" s="70"/>
+      <c r="A402" s="82"/>
+      <c r="B402" s="82"/>
       <c r="C402" s="31" t="s">
         <v>1253</v>
       </c>
@@ -65809,8 +65808,8 @@
       </c>
     </row>
     <row r="403" spans="1:9">
-      <c r="A403" s="70"/>
-      <c r="B403" s="70"/>
+      <c r="A403" s="82"/>
+      <c r="B403" s="82"/>
       <c r="C403" s="31" t="s">
         <v>1255</v>
       </c>
@@ -65839,8 +65838,8 @@
       </c>
     </row>
     <row r="404" spans="1:9">
-      <c r="A404" s="70"/>
-      <c r="B404" s="70"/>
+      <c r="A404" s="82"/>
+      <c r="B404" s="82"/>
       <c r="C404" s="31" t="s">
         <v>1257</v>
       </c>
@@ -65869,8 +65868,8 @@
       </c>
     </row>
     <row r="405" spans="1:9">
-      <c r="A405" s="70"/>
-      <c r="B405" s="70"/>
+      <c r="A405" s="82"/>
+      <c r="B405" s="82"/>
       <c r="C405" s="31" t="s">
         <v>1261</v>
       </c>
@@ -65899,8 +65898,8 @@
       </c>
     </row>
     <row r="406" spans="1:9">
-      <c r="A406" s="70"/>
-      <c r="B406" s="70" t="s">
+      <c r="A406" s="82"/>
+      <c r="B406" s="82" t="s">
         <v>1272</v>
       </c>
       <c r="C406" s="31" t="s">
@@ -65931,8 +65930,8 @@
       </c>
     </row>
     <row r="407" spans="1:9">
-      <c r="A407" s="70"/>
-      <c r="B407" s="70"/>
+      <c r="A407" s="82"/>
+      <c r="B407" s="82"/>
       <c r="C407" s="31" t="s">
         <v>1249</v>
       </c>
@@ -65961,8 +65960,8 @@
       </c>
     </row>
     <row r="408" spans="1:9">
-      <c r="A408" s="70"/>
-      <c r="B408" s="70"/>
+      <c r="A408" s="82"/>
+      <c r="B408" s="82"/>
       <c r="C408" s="31" t="s">
         <v>1251</v>
       </c>
@@ -65991,8 +65990,8 @@
       </c>
     </row>
     <row r="409" spans="1:9">
-      <c r="A409" s="70"/>
-      <c r="B409" s="70"/>
+      <c r="A409" s="82"/>
+      <c r="B409" s="82"/>
       <c r="C409" s="31" t="s">
         <v>1253</v>
       </c>
@@ -66021,8 +66020,8 @@
       </c>
     </row>
     <row r="410" spans="1:9">
-      <c r="A410" s="70"/>
-      <c r="B410" s="70"/>
+      <c r="A410" s="82"/>
+      <c r="B410" s="82"/>
       <c r="C410" s="31" t="s">
         <v>1255</v>
       </c>
@@ -66051,8 +66050,8 @@
       </c>
     </row>
     <row r="411" spans="1:9">
-      <c r="A411" s="70"/>
-      <c r="B411" s="70"/>
+      <c r="A411" s="82"/>
+      <c r="B411" s="82"/>
       <c r="C411" s="31" t="s">
         <v>1257</v>
       </c>
@@ -66081,8 +66080,8 @@
       </c>
     </row>
     <row r="412" spans="1:9">
-      <c r="A412" s="70"/>
-      <c r="B412" s="70"/>
+      <c r="A412" s="82"/>
+      <c r="B412" s="82"/>
       <c r="C412" s="31" t="s">
         <v>1261</v>
       </c>
@@ -66111,8 +66110,8 @@
       </c>
     </row>
     <row r="413" spans="1:9">
-      <c r="A413" s="70"/>
-      <c r="B413" s="70" t="s">
+      <c r="A413" s="82"/>
+      <c r="B413" s="82" t="s">
         <v>1281</v>
       </c>
       <c r="C413" s="31" t="s">
@@ -66143,8 +66142,8 @@
       </c>
     </row>
     <row r="414" spans="1:9">
-      <c r="A414" s="70"/>
-      <c r="B414" s="70"/>
+      <c r="A414" s="82"/>
+      <c r="B414" s="82"/>
       <c r="C414" s="31" t="s">
         <v>1249</v>
       </c>
@@ -66173,8 +66172,8 @@
       </c>
     </row>
     <row r="415" spans="1:9">
-      <c r="A415" s="70"/>
-      <c r="B415" s="70"/>
+      <c r="A415" s="82"/>
+      <c r="B415" s="82"/>
       <c r="C415" s="31" t="s">
         <v>1251</v>
       </c>
@@ -66203,8 +66202,8 @@
       </c>
     </row>
     <row r="416" spans="1:9">
-      <c r="A416" s="70"/>
-      <c r="B416" s="70"/>
+      <c r="A416" s="82"/>
+      <c r="B416" s="82"/>
       <c r="C416" s="31" t="s">
         <v>1253</v>
       </c>
@@ -66233,8 +66232,8 @@
       </c>
     </row>
     <row r="417" spans="1:9">
-      <c r="A417" s="70"/>
-      <c r="B417" s="70"/>
+      <c r="A417" s="82"/>
+      <c r="B417" s="82"/>
       <c r="C417" s="31" t="s">
         <v>1255</v>
       </c>
@@ -66263,8 +66262,8 @@
       </c>
     </row>
     <row r="418" spans="1:9">
-      <c r="A418" s="70"/>
-      <c r="B418" s="70"/>
+      <c r="A418" s="82"/>
+      <c r="B418" s="82"/>
       <c r="C418" s="31" t="s">
         <v>1257</v>
       </c>
@@ -66293,8 +66292,8 @@
       </c>
     </row>
     <row r="419" spans="1:9">
-      <c r="A419" s="70"/>
-      <c r="B419" s="70"/>
+      <c r="A419" s="82"/>
+      <c r="B419" s="82"/>
       <c r="C419" s="31" t="s">
         <v>1261</v>
       </c>
@@ -66323,8 +66322,8 @@
       </c>
     </row>
     <row r="420" spans="1:9">
-      <c r="A420" s="70"/>
-      <c r="B420" s="70" t="s">
+      <c r="A420" s="82"/>
+      <c r="B420" s="82" t="s">
         <v>1290</v>
       </c>
       <c r="C420" s="31" t="s">
@@ -66355,8 +66354,8 @@
       </c>
     </row>
     <row r="421" spans="1:9">
-      <c r="A421" s="70"/>
-      <c r="B421" s="70"/>
+      <c r="A421" s="82"/>
+      <c r="B421" s="82"/>
       <c r="C421" s="31" t="s">
         <v>1249</v>
       </c>
@@ -66385,8 +66384,8 @@
       </c>
     </row>
     <row r="422" spans="1:9">
-      <c r="A422" s="70"/>
-      <c r="B422" s="70"/>
+      <c r="A422" s="82"/>
+      <c r="B422" s="82"/>
       <c r="C422" s="31" t="s">
         <v>1251</v>
       </c>
@@ -66415,8 +66414,8 @@
       </c>
     </row>
     <row r="423" spans="1:9">
-      <c r="A423" s="70"/>
-      <c r="B423" s="70"/>
+      <c r="A423" s="82"/>
+      <c r="B423" s="82"/>
       <c r="C423" s="31" t="s">
         <v>1253</v>
       </c>
@@ -66445,8 +66444,8 @@
       </c>
     </row>
     <row r="424" spans="1:9">
-      <c r="A424" s="70"/>
-      <c r="B424" s="70"/>
+      <c r="A424" s="82"/>
+      <c r="B424" s="82"/>
       <c r="C424" s="31" t="s">
         <v>1255</v>
       </c>
@@ -66475,8 +66474,8 @@
       </c>
     </row>
     <row r="425" spans="1:9">
-      <c r="A425" s="70"/>
-      <c r="B425" s="70"/>
+      <c r="A425" s="82"/>
+      <c r="B425" s="82"/>
       <c r="C425" s="31" t="s">
         <v>1257</v>
       </c>
@@ -66505,8 +66504,8 @@
       </c>
     </row>
     <row r="426" spans="1:9">
-      <c r="A426" s="70"/>
-      <c r="B426" s="70"/>
+      <c r="A426" s="82"/>
+      <c r="B426" s="82"/>
       <c r="C426" s="31" t="s">
         <v>1261</v>
       </c>
@@ -66535,8 +66534,8 @@
       </c>
     </row>
     <row r="427" spans="1:9">
-      <c r="A427" s="70"/>
-      <c r="B427" s="70" t="s">
+      <c r="A427" s="82"/>
+      <c r="B427" s="82" t="s">
         <v>1299</v>
       </c>
       <c r="C427" s="31" t="s">
@@ -66567,8 +66566,8 @@
       </c>
     </row>
     <row r="428" spans="1:9">
-      <c r="A428" s="70"/>
-      <c r="B428" s="70"/>
+      <c r="A428" s="82"/>
+      <c r="B428" s="82"/>
       <c r="C428" s="31" t="s">
         <v>1249</v>
       </c>
@@ -66597,8 +66596,8 @@
       </c>
     </row>
     <row r="429" spans="1:9">
-      <c r="A429" s="70"/>
-      <c r="B429" s="70"/>
+      <c r="A429" s="82"/>
+      <c r="B429" s="82"/>
       <c r="C429" s="31" t="s">
         <v>1251</v>
       </c>
@@ -66627,8 +66626,8 @@
       </c>
     </row>
     <row r="430" spans="1:9">
-      <c r="A430" s="70"/>
-      <c r="B430" s="70"/>
+      <c r="A430" s="82"/>
+      <c r="B430" s="82"/>
       <c r="C430" s="31" t="s">
         <v>1253</v>
       </c>
@@ -66657,8 +66656,8 @@
       </c>
     </row>
     <row r="431" spans="1:9">
-      <c r="A431" s="70"/>
-      <c r="B431" s="70"/>
+      <c r="A431" s="82"/>
+      <c r="B431" s="82"/>
       <c r="C431" s="31" t="s">
         <v>1255</v>
       </c>
@@ -66687,8 +66686,8 @@
       </c>
     </row>
     <row r="432" spans="1:9">
-      <c r="A432" s="70"/>
-      <c r="B432" s="70"/>
+      <c r="A432" s="82"/>
+      <c r="B432" s="82"/>
       <c r="C432" s="31" t="s">
         <v>1257</v>
       </c>
@@ -66717,8 +66716,8 @@
       </c>
     </row>
     <row r="433" spans="1:9">
-      <c r="A433" s="70"/>
-      <c r="B433" s="70"/>
+      <c r="A433" s="82"/>
+      <c r="B433" s="82"/>
       <c r="C433" s="31" t="s">
         <v>1261</v>
       </c>
@@ -66747,8 +66746,8 @@
       </c>
     </row>
     <row r="434" spans="1:9">
-      <c r="A434" s="70"/>
-      <c r="B434" s="70" t="s">
+      <c r="A434" s="82"/>
+      <c r="B434" s="82" t="s">
         <v>1308</v>
       </c>
       <c r="C434" s="31" t="s">
@@ -66779,8 +66778,8 @@
       </c>
     </row>
     <row r="435" spans="1:9">
-      <c r="A435" s="70"/>
-      <c r="B435" s="70"/>
+      <c r="A435" s="82"/>
+      <c r="B435" s="82"/>
       <c r="C435" s="31" t="s">
         <v>1249</v>
       </c>
@@ -66809,8 +66808,8 @@
       </c>
     </row>
     <row r="436" spans="1:9">
-      <c r="A436" s="70"/>
-      <c r="B436" s="70"/>
+      <c r="A436" s="82"/>
+      <c r="B436" s="82"/>
       <c r="C436" s="31" t="s">
         <v>1251</v>
       </c>
@@ -66839,8 +66838,8 @@
       </c>
     </row>
     <row r="437" spans="1:9">
-      <c r="A437" s="70"/>
-      <c r="B437" s="70"/>
+      <c r="A437" s="82"/>
+      <c r="B437" s="82"/>
       <c r="C437" s="31" t="s">
         <v>1253</v>
       </c>
@@ -66869,8 +66868,8 @@
       </c>
     </row>
     <row r="438" spans="1:9">
-      <c r="A438" s="70"/>
-      <c r="B438" s="70"/>
+      <c r="A438" s="82"/>
+      <c r="B438" s="82"/>
       <c r="C438" s="31" t="s">
         <v>1255</v>
       </c>
@@ -66899,8 +66898,8 @@
       </c>
     </row>
     <row r="439" spans="1:9">
-      <c r="A439" s="70"/>
-      <c r="B439" s="70"/>
+      <c r="A439" s="82"/>
+      <c r="B439" s="82"/>
       <c r="C439" s="31" t="s">
         <v>1257</v>
       </c>
@@ -66929,8 +66928,8 @@
       </c>
     </row>
     <row r="440" spans="1:9">
-      <c r="A440" s="70"/>
-      <c r="B440" s="70"/>
+      <c r="A440" s="82"/>
+      <c r="B440" s="82"/>
       <c r="C440" s="31" t="s">
         <v>1261</v>
       </c>
@@ -66959,8 +66958,8 @@
       </c>
     </row>
     <row r="441" spans="1:9">
-      <c r="A441" s="70"/>
-      <c r="B441" s="70" t="s">
+      <c r="A441" s="82"/>
+      <c r="B441" s="82" t="s">
         <v>1317</v>
       </c>
       <c r="C441" s="31" t="s">
@@ -66991,8 +66990,8 @@
       </c>
     </row>
     <row r="442" spans="1:9">
-      <c r="A442" s="70"/>
-      <c r="B442" s="70"/>
+      <c r="A442" s="82"/>
+      <c r="B442" s="82"/>
       <c r="C442" s="31" t="s">
         <v>1249</v>
       </c>
@@ -67021,8 +67020,8 @@
       </c>
     </row>
     <row r="443" spans="1:9">
-      <c r="A443" s="70"/>
-      <c r="B443" s="70"/>
+      <c r="A443" s="82"/>
+      <c r="B443" s="82"/>
       <c r="C443" s="31" t="s">
         <v>1251</v>
       </c>
@@ -67051,8 +67050,8 @@
       </c>
     </row>
     <row r="444" spans="1:9">
-      <c r="A444" s="70"/>
-      <c r="B444" s="70"/>
+      <c r="A444" s="82"/>
+      <c r="B444" s="82"/>
       <c r="C444" s="31" t="s">
         <v>1253</v>
       </c>
@@ -67081,8 +67080,8 @@
       </c>
     </row>
     <row r="445" spans="1:9">
-      <c r="A445" s="70"/>
-      <c r="B445" s="70"/>
+      <c r="A445" s="82"/>
+      <c r="B445" s="82"/>
       <c r="C445" s="31" t="s">
         <v>1255</v>
       </c>
@@ -67111,8 +67110,8 @@
       </c>
     </row>
     <row r="446" spans="1:9">
-      <c r="A446" s="70"/>
-      <c r="B446" s="70"/>
+      <c r="A446" s="82"/>
+      <c r="B446" s="82"/>
       <c r="C446" s="31" t="s">
         <v>1257</v>
       </c>
@@ -67141,8 +67140,8 @@
       </c>
     </row>
     <row r="447" spans="1:9">
-      <c r="A447" s="70"/>
-      <c r="B447" s="70"/>
+      <c r="A447" s="82"/>
+      <c r="B447" s="82"/>
       <c r="C447" s="31" t="s">
         <v>1261</v>
       </c>
@@ -67171,8 +67170,8 @@
       </c>
     </row>
     <row r="448" spans="1:9">
-      <c r="A448" s="70"/>
-      <c r="B448" s="70" t="s">
+      <c r="A448" s="82"/>
+      <c r="B448" s="82" t="s">
         <v>1326</v>
       </c>
       <c r="C448" s="31" t="s">
@@ -67203,8 +67202,8 @@
       </c>
     </row>
     <row r="449" spans="1:9">
-      <c r="A449" s="70"/>
-      <c r="B449" s="70"/>
+      <c r="A449" s="82"/>
+      <c r="B449" s="82"/>
       <c r="C449" s="31" t="s">
         <v>1249</v>
       </c>
@@ -67233,8 +67232,8 @@
       </c>
     </row>
     <row r="450" spans="1:9">
-      <c r="A450" s="70"/>
-      <c r="B450" s="70"/>
+      <c r="A450" s="82"/>
+      <c r="B450" s="82"/>
       <c r="C450" s="31" t="s">
         <v>1251</v>
       </c>
@@ -67263,8 +67262,8 @@
       </c>
     </row>
     <row r="451" spans="1:9">
-      <c r="A451" s="70"/>
-      <c r="B451" s="70"/>
+      <c r="A451" s="82"/>
+      <c r="B451" s="82"/>
       <c r="C451" s="31" t="s">
         <v>1253</v>
       </c>
@@ -67293,8 +67292,8 @@
       </c>
     </row>
     <row r="452" spans="1:9">
-      <c r="A452" s="70"/>
-      <c r="B452" s="70"/>
+      <c r="A452" s="82"/>
+      <c r="B452" s="82"/>
       <c r="C452" s="31" t="s">
         <v>1255</v>
       </c>
@@ -67323,8 +67322,8 @@
       </c>
     </row>
     <row r="453" spans="1:9">
-      <c r="A453" s="70"/>
-      <c r="B453" s="70"/>
+      <c r="A453" s="82"/>
+      <c r="B453" s="82"/>
       <c r="C453" s="31" t="s">
         <v>1257</v>
       </c>
@@ -67353,8 +67352,8 @@
       </c>
     </row>
     <row r="454" spans="1:9">
-      <c r="A454" s="70"/>
-      <c r="B454" s="70"/>
+      <c r="A454" s="82"/>
+      <c r="B454" s="82"/>
       <c r="C454" s="31" t="s">
         <v>1261</v>
       </c>
@@ -67383,8 +67382,8 @@
       </c>
     </row>
     <row r="455" spans="1:9">
-      <c r="A455" s="70"/>
-      <c r="B455" s="70" t="s">
+      <c r="A455" s="82"/>
+      <c r="B455" s="82" t="s">
         <v>1335</v>
       </c>
       <c r="C455" s="31" t="s">
@@ -67415,8 +67414,8 @@
       </c>
     </row>
     <row r="456" spans="1:9">
-      <c r="A456" s="70"/>
-      <c r="B456" s="70"/>
+      <c r="A456" s="82"/>
+      <c r="B456" s="82"/>
       <c r="C456" s="31" t="s">
         <v>1249</v>
       </c>
@@ -67445,8 +67444,8 @@
       </c>
     </row>
     <row r="457" spans="1:9">
-      <c r="A457" s="70"/>
-      <c r="B457" s="70"/>
+      <c r="A457" s="82"/>
+      <c r="B457" s="82"/>
       <c r="C457" s="31" t="s">
         <v>1251</v>
       </c>
@@ -67475,8 +67474,8 @@
       </c>
     </row>
     <row r="458" spans="1:9">
-      <c r="A458" s="70"/>
-      <c r="B458" s="70"/>
+      <c r="A458" s="82"/>
+      <c r="B458" s="82"/>
       <c r="C458" s="31" t="s">
         <v>1253</v>
       </c>
@@ -67505,8 +67504,8 @@
       </c>
     </row>
     <row r="459" spans="1:9">
-      <c r="A459" s="70"/>
-      <c r="B459" s="70"/>
+      <c r="A459" s="82"/>
+      <c r="B459" s="82"/>
       <c r="C459" s="31" t="s">
         <v>1255</v>
       </c>
@@ -67535,8 +67534,8 @@
       </c>
     </row>
     <row r="460" spans="1:9">
-      <c r="A460" s="70"/>
-      <c r="B460" s="70"/>
+      <c r="A460" s="82"/>
+      <c r="B460" s="82"/>
       <c r="C460" s="31" t="s">
         <v>1257</v>
       </c>
@@ -67565,8 +67564,8 @@
       </c>
     </row>
     <row r="461" spans="1:9">
-      <c r="A461" s="70"/>
-      <c r="B461" s="70"/>
+      <c r="A461" s="82"/>
+      <c r="B461" s="82"/>
       <c r="C461" s="31" t="s">
         <v>1261</v>
       </c>
@@ -67595,8 +67594,8 @@
       </c>
     </row>
     <row r="462" spans="1:9">
-      <c r="A462" s="70"/>
-      <c r="B462" s="70" t="s">
+      <c r="A462" s="82"/>
+      <c r="B462" s="82" t="s">
         <v>1344</v>
       </c>
       <c r="C462" s="31" t="s">
@@ -67627,8 +67626,8 @@
       </c>
     </row>
     <row r="463" spans="1:9">
-      <c r="A463" s="70"/>
-      <c r="B463" s="70"/>
+      <c r="A463" s="82"/>
+      <c r="B463" s="82"/>
       <c r="C463" s="31" t="s">
         <v>1249</v>
       </c>
@@ -67657,8 +67656,8 @@
       </c>
     </row>
     <row r="464" spans="1:9">
-      <c r="A464" s="70"/>
-      <c r="B464" s="70"/>
+      <c r="A464" s="82"/>
+      <c r="B464" s="82"/>
       <c r="C464" s="31" t="s">
         <v>1251</v>
       </c>
@@ -67687,8 +67686,8 @@
       </c>
     </row>
     <row r="465" spans="1:9">
-      <c r="A465" s="70"/>
-      <c r="B465" s="70"/>
+      <c r="A465" s="82"/>
+      <c r="B465" s="82"/>
       <c r="C465" s="31" t="s">
         <v>1253</v>
       </c>
@@ -67717,8 +67716,8 @@
       </c>
     </row>
     <row r="466" spans="1:9">
-      <c r="A466" s="70"/>
-      <c r="B466" s="70"/>
+      <c r="A466" s="82"/>
+      <c r="B466" s="82"/>
       <c r="C466" s="31" t="s">
         <v>1255</v>
       </c>
@@ -67747,8 +67746,8 @@
       </c>
     </row>
     <row r="467" spans="1:9">
-      <c r="A467" s="70"/>
-      <c r="B467" s="70"/>
+      <c r="A467" s="82"/>
+      <c r="B467" s="82"/>
       <c r="C467" s="31" t="s">
         <v>1257</v>
       </c>
@@ -67777,8 +67776,8 @@
       </c>
     </row>
     <row r="468" spans="1:9">
-      <c r="A468" s="70"/>
-      <c r="B468" s="70"/>
+      <c r="A468" s="82"/>
+      <c r="B468" s="82"/>
       <c r="C468" s="31" t="s">
         <v>1261</v>
       </c>
@@ -67807,8 +67806,8 @@
       </c>
     </row>
     <row r="469" spans="1:9">
-      <c r="A469" s="70"/>
-      <c r="B469" s="70" t="s">
+      <c r="A469" s="82"/>
+      <c r="B469" s="82" t="s">
         <v>1353</v>
       </c>
       <c r="C469" s="31" t="s">
@@ -67839,8 +67838,8 @@
       </c>
     </row>
     <row r="470" spans="1:9">
-      <c r="A470" s="70"/>
-      <c r="B470" s="70"/>
+      <c r="A470" s="82"/>
+      <c r="B470" s="82"/>
       <c r="C470" s="31" t="s">
         <v>1249</v>
       </c>
@@ -67869,8 +67868,8 @@
       </c>
     </row>
     <row r="471" spans="1:9">
-      <c r="A471" s="70"/>
-      <c r="B471" s="70"/>
+      <c r="A471" s="82"/>
+      <c r="B471" s="82"/>
       <c r="C471" s="31" t="s">
         <v>1251</v>
       </c>
@@ -67899,8 +67898,8 @@
       </c>
     </row>
     <row r="472" spans="1:9">
-      <c r="A472" s="70"/>
-      <c r="B472" s="70"/>
+      <c r="A472" s="82"/>
+      <c r="B472" s="82"/>
       <c r="C472" s="31" t="s">
         <v>1253</v>
       </c>
@@ -67929,8 +67928,8 @@
       </c>
     </row>
     <row r="473" spans="1:9">
-      <c r="A473" s="70"/>
-      <c r="B473" s="70"/>
+      <c r="A473" s="82"/>
+      <c r="B473" s="82"/>
       <c r="C473" s="31" t="s">
         <v>1255</v>
       </c>
@@ -67959,8 +67958,8 @@
       </c>
     </row>
     <row r="474" spans="1:9">
-      <c r="A474" s="70"/>
-      <c r="B474" s="70"/>
+      <c r="A474" s="82"/>
+      <c r="B474" s="82"/>
       <c r="C474" s="31" t="s">
         <v>1257</v>
       </c>
@@ -67989,8 +67988,8 @@
       </c>
     </row>
     <row r="475" spans="1:9">
-      <c r="A475" s="70"/>
-      <c r="B475" s="70"/>
+      <c r="A475" s="82"/>
+      <c r="B475" s="82"/>
       <c r="C475" s="31" t="s">
         <v>1261</v>
       </c>
@@ -68019,8 +68018,8 @@
       </c>
     </row>
     <row r="476" spans="1:9">
-      <c r="A476" s="70"/>
-      <c r="B476" s="70" t="s">
+      <c r="A476" s="82"/>
+      <c r="B476" s="82" t="s">
         <v>1365</v>
       </c>
       <c r="C476" s="31" t="s">
@@ -68051,8 +68050,8 @@
       </c>
     </row>
     <row r="477" spans="1:9">
-      <c r="A477" s="70"/>
-      <c r="B477" s="70"/>
+      <c r="A477" s="82"/>
+      <c r="B477" s="82"/>
       <c r="C477" s="31" t="s">
         <v>1249</v>
       </c>
@@ -68081,8 +68080,8 @@
       </c>
     </row>
     <row r="478" spans="1:9">
-      <c r="A478" s="70"/>
-      <c r="B478" s="70"/>
+      <c r="A478" s="82"/>
+      <c r="B478" s="82"/>
       <c r="C478" s="31" t="s">
         <v>1251</v>
       </c>
@@ -68111,8 +68110,8 @@
       </c>
     </row>
     <row r="479" spans="1:9">
-      <c r="A479" s="70"/>
-      <c r="B479" s="70"/>
+      <c r="A479" s="82"/>
+      <c r="B479" s="82"/>
       <c r="C479" s="31" t="s">
         <v>1253</v>
       </c>
@@ -68141,8 +68140,8 @@
       </c>
     </row>
     <row r="480" spans="1:9">
-      <c r="A480" s="70"/>
-      <c r="B480" s="70"/>
+      <c r="A480" s="82"/>
+      <c r="B480" s="82"/>
       <c r="C480" s="31" t="s">
         <v>1255</v>
       </c>
@@ -68171,8 +68170,8 @@
       </c>
     </row>
     <row r="481" spans="1:9">
-      <c r="A481" s="70"/>
-      <c r="B481" s="70"/>
+      <c r="A481" s="82"/>
+      <c r="B481" s="82"/>
       <c r="C481" s="31" t="s">
         <v>1257</v>
       </c>
@@ -68201,8 +68200,8 @@
       </c>
     </row>
     <row r="482" spans="1:9">
-      <c r="A482" s="70"/>
-      <c r="B482" s="70"/>
+      <c r="A482" s="82"/>
+      <c r="B482" s="82"/>
       <c r="C482" s="31" t="s">
         <v>1261</v>
       </c>
@@ -68537,7 +68536,7 @@
       </c>
     </row>
     <row r="492" spans="1:9">
-      <c r="A492" s="70" t="s">
+      <c r="A492" s="82" t="s">
         <v>1396</v>
       </c>
       <c r="B492" s="26" t="s">
@@ -68571,7 +68570,7 @@
       </c>
     </row>
     <row r="493" spans="1:9">
-      <c r="A493" s="70"/>
+      <c r="A493" s="82"/>
       <c r="B493" s="26" t="s">
         <v>1401</v>
       </c>
@@ -68603,7 +68602,7 @@
       </c>
     </row>
     <row r="494" spans="1:9">
-      <c r="A494" s="70"/>
+      <c r="A494" s="82"/>
       <c r="B494" s="26" t="s">
         <v>1404</v>
       </c>
@@ -68635,7 +68634,7 @@
       </c>
     </row>
     <row r="495" spans="1:9">
-      <c r="A495" s="70"/>
+      <c r="A495" s="82"/>
       <c r="B495" s="26" t="s">
         <v>1406</v>
       </c>
@@ -68702,36 +68701,48 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A2:A30"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B141:B148"/>
-    <mergeCell ref="B149:B156"/>
-    <mergeCell ref="B157:B164"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A492:A495"/>
+    <mergeCell ref="A392:A482"/>
+    <mergeCell ref="B392:B398"/>
+    <mergeCell ref="B399:B405"/>
+    <mergeCell ref="B406:B412"/>
+    <mergeCell ref="B413:B419"/>
+    <mergeCell ref="B420:B426"/>
+    <mergeCell ref="B427:B433"/>
+    <mergeCell ref="B434:B440"/>
+    <mergeCell ref="B441:B447"/>
+    <mergeCell ref="B448:B454"/>
+    <mergeCell ref="B455:B461"/>
+    <mergeCell ref="B462:B468"/>
+    <mergeCell ref="B469:B475"/>
+    <mergeCell ref="B476:B482"/>
+    <mergeCell ref="A343:A351"/>
+    <mergeCell ref="A352:A391"/>
+    <mergeCell ref="B352:B359"/>
+    <mergeCell ref="B360:B367"/>
+    <mergeCell ref="B368:B375"/>
+    <mergeCell ref="B376:B383"/>
+    <mergeCell ref="B384:B391"/>
+    <mergeCell ref="A259:A270"/>
+    <mergeCell ref="A271:A273"/>
+    <mergeCell ref="A285:A316"/>
+    <mergeCell ref="B285:B292"/>
+    <mergeCell ref="B293:B300"/>
+    <mergeCell ref="B301:B308"/>
+    <mergeCell ref="B309:B316"/>
+    <mergeCell ref="A317:A332"/>
+    <mergeCell ref="B317:B324"/>
+    <mergeCell ref="B325:B332"/>
+    <mergeCell ref="A333:A342"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="B337:B342"/>
+    <mergeCell ref="B210:B217"/>
+    <mergeCell ref="B218:B225"/>
+    <mergeCell ref="B237:B241"/>
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="A205:A225"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A226:A258"/>
     <mergeCell ref="B165:B172"/>
     <mergeCell ref="B173:B180"/>
     <mergeCell ref="B181:B188"/>
@@ -68748,48 +68759,36 @@
     <mergeCell ref="B129:B131"/>
     <mergeCell ref="B132:B134"/>
     <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B210:B217"/>
-    <mergeCell ref="B218:B225"/>
-    <mergeCell ref="B237:B241"/>
-    <mergeCell ref="B242:B247"/>
-    <mergeCell ref="A205:A225"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A226:A258"/>
-    <mergeCell ref="A317:A332"/>
-    <mergeCell ref="B317:B324"/>
-    <mergeCell ref="B325:B332"/>
-    <mergeCell ref="A333:A342"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="B337:B342"/>
-    <mergeCell ref="A259:A270"/>
-    <mergeCell ref="A271:A273"/>
-    <mergeCell ref="A285:A316"/>
-    <mergeCell ref="B285:B292"/>
-    <mergeCell ref="B293:B300"/>
-    <mergeCell ref="B301:B308"/>
-    <mergeCell ref="B309:B316"/>
-    <mergeCell ref="A343:A351"/>
-    <mergeCell ref="A352:A391"/>
-    <mergeCell ref="B352:B359"/>
-    <mergeCell ref="B360:B367"/>
-    <mergeCell ref="B368:B375"/>
-    <mergeCell ref="B376:B383"/>
-    <mergeCell ref="B384:B391"/>
-    <mergeCell ref="A492:A495"/>
-    <mergeCell ref="A392:A482"/>
-    <mergeCell ref="B392:B398"/>
-    <mergeCell ref="B399:B405"/>
-    <mergeCell ref="B406:B412"/>
-    <mergeCell ref="B413:B419"/>
-    <mergeCell ref="B420:B426"/>
-    <mergeCell ref="B427:B433"/>
-    <mergeCell ref="B434:B440"/>
-    <mergeCell ref="B441:B447"/>
-    <mergeCell ref="B448:B454"/>
-    <mergeCell ref="B455:B461"/>
-    <mergeCell ref="B462:B468"/>
-    <mergeCell ref="B469:B475"/>
-    <mergeCell ref="B476:B482"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B141:B148"/>
+    <mergeCell ref="B149:B156"/>
+    <mergeCell ref="B157:B164"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A55:A66"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
@@ -68802,10 +68801,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AD1FF2-D258-4056-B053-4520A10F692B}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -68819,15 +68818,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="71" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
       <c r="F1" s="38" t="s">
         <v>4</v>
       </c>
@@ -68836,17 +68835,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="34" customFormat="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>1422</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="97" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:7" s="34" customFormat="1">
       <c r="A3" s="38" t="s">
@@ -68876,15 +68875,15 @@
         <v>66</v>
       </c>
       <c r="B4" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A4,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A4,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C4" s="63">
-        <f>VLOOKUP(Planilha1!A4,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A4,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45139.5</v>
       </c>
       <c r="D4" s="63">
-        <f>VLOOKUP(Planilha1!A4,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A4,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45169.5</v>
       </c>
       <c r="E4" s="64">
@@ -68895,7 +68894,7 @@
         <v>1423</v>
       </c>
       <c r="G4" s="65">
-        <f>VLOOKUP(Planilha1!A4,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A4,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -68904,15 +68903,15 @@
         <v>74</v>
       </c>
       <c r="B5" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A5,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A5,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C5" s="63">
-        <f>VLOOKUP(Planilha1!A5,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A5,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45139.5</v>
       </c>
       <c r="D5" s="63">
-        <f>VLOOKUP(Planilha1!A5,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A5,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45169.5</v>
       </c>
       <c r="E5" s="64">
@@ -68923,7 +68922,7 @@
         <v>1423</v>
       </c>
       <c r="G5" s="65">
-        <f>VLOOKUP(Planilha1!A5,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A5,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -68932,15 +68931,15 @@
         <v>76</v>
       </c>
       <c r="B6" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A6,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A6,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C6" s="63">
-        <f>VLOOKUP(Planilha1!A6,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A6,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45160.375</v>
       </c>
       <c r="D6" s="63">
-        <f>VLOOKUP(Planilha1!A6,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A6,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45208.708333333299</v>
       </c>
       <c r="E6" s="64">
@@ -68951,7 +68950,7 @@
         <v>1423</v>
       </c>
       <c r="G6" s="65">
-        <f>VLOOKUP(Planilha1!A6,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A6,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -68960,15 +68959,15 @@
         <v>81</v>
       </c>
       <c r="B7" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A7,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A7,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C7" s="63">
-        <f>VLOOKUP(Planilha1!A7,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A7,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45160.375</v>
       </c>
       <c r="D7" s="63">
-        <f>VLOOKUP(Planilha1!A7,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A7,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45208.708333333299</v>
       </c>
       <c r="E7" s="64">
@@ -68979,7 +68978,7 @@
         <v>1423</v>
       </c>
       <c r="G7" s="65">
-        <f>VLOOKUP(Planilha1!A7,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A7,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -68988,15 +68987,15 @@
         <v>83</v>
       </c>
       <c r="B8" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A8,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A8,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C8" s="63">
-        <f>VLOOKUP(Planilha1!A8,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A8,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45160.375</v>
       </c>
       <c r="D8" s="63">
-        <f>VLOOKUP(Planilha1!A8,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A8,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45208.708333333299</v>
       </c>
       <c r="E8" s="64">
@@ -69007,7 +69006,7 @@
         <v>1423</v>
       </c>
       <c r="G8" s="65">
-        <f>VLOOKUP(Planilha1!A8,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A8,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69016,15 +69015,15 @@
         <v>85</v>
       </c>
       <c r="B9" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A9,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A9,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C9" s="63">
-        <f>VLOOKUP(Planilha1!A9,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A9,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45160.375</v>
       </c>
       <c r="D9" s="63">
-        <f>VLOOKUP(Planilha1!A9,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A9,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45208.708333333299</v>
       </c>
       <c r="E9" s="64">
@@ -69035,7 +69034,7 @@
         <v>1423</v>
       </c>
       <c r="G9" s="65">
-        <f>VLOOKUP(Planilha1!A9,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A9,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69044,15 +69043,15 @@
         <v>88</v>
       </c>
       <c r="B10" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A10,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A10,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C10" s="63">
-        <f>VLOOKUP(Planilha1!A10,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A10,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45139.5</v>
       </c>
       <c r="D10" s="63">
-        <f>VLOOKUP(Planilha1!A10,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A10,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45215.5</v>
       </c>
       <c r="E10" s="64">
@@ -69063,7 +69062,7 @@
         <v>1423</v>
       </c>
       <c r="G10" s="65">
-        <f>VLOOKUP(Planilha1!A10,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A10,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69072,15 +69071,15 @@
         <v>85</v>
       </c>
       <c r="B11" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A11,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A11,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C11" s="63">
-        <f>VLOOKUP(Planilha1!A11,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A11,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45160.375</v>
       </c>
       <c r="D11" s="63">
-        <f>VLOOKUP(Planilha1!A11,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A11,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45208.708333333299</v>
       </c>
       <c r="E11" s="64">
@@ -69091,7 +69090,7 @@
         <v>1423</v>
       </c>
       <c r="G11" s="65">
-        <f>VLOOKUP(Planilha1!A11,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A11,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69100,15 +69099,15 @@
         <v>93</v>
       </c>
       <c r="B12" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A12,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A12,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C12" s="63">
-        <f>VLOOKUP(Planilha1!A12,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A12,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45139.5</v>
       </c>
       <c r="D12" s="63">
-        <f>VLOOKUP(Planilha1!A12,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A12,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45215.5</v>
       </c>
       <c r="E12" s="64">
@@ -69119,7 +69118,7 @@
         <v>1423</v>
       </c>
       <c r="G12" s="65">
-        <f>VLOOKUP(Planilha1!A12,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A12,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69128,15 +69127,15 @@
         <v>95</v>
       </c>
       <c r="B13" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A13,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A13,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C13" s="63">
-        <f>VLOOKUP(Planilha1!A13,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A13,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D13" s="63">
-        <f>VLOOKUP(Planilha1!A13,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A13,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45289.708333333299</v>
       </c>
       <c r="E13" s="64">
@@ -69147,7 +69146,7 @@
         <v>1423</v>
       </c>
       <c r="G13" s="65">
-        <f>VLOOKUP(Planilha1!A13,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A13,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69156,15 +69155,15 @@
         <v>100</v>
       </c>
       <c r="B14" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A14,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A14,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C14" s="63">
-        <f>VLOOKUP(Planilha1!A14,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A14,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D14" s="63">
-        <f>VLOOKUP(Planilha1!A14,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A14,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45287.708333333299</v>
       </c>
       <c r="E14" s="64">
@@ -69175,7 +69174,7 @@
         <v>1423</v>
       </c>
       <c r="G14" s="65">
-        <f>VLOOKUP(Planilha1!A14,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A14,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69184,15 +69183,15 @@
         <v>100</v>
       </c>
       <c r="B15" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A15,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A15,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C15" s="63">
-        <f>VLOOKUP(Planilha1!A15,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A15,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D15" s="63">
-        <f>VLOOKUP(Planilha1!A15,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A15,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45287.708333333299</v>
       </c>
       <c r="E15" s="64">
@@ -69203,7 +69202,7 @@
         <v>1423</v>
       </c>
       <c r="G15" s="65">
-        <f>VLOOKUP(Planilha1!A15,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A15,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69212,15 +69211,15 @@
         <v>100</v>
       </c>
       <c r="B16" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A16,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A16,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C16" s="63">
-        <f>VLOOKUP(Planilha1!A16,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A16,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D16" s="63">
-        <f>VLOOKUP(Planilha1!A16,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A16,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45287.708333333299</v>
       </c>
       <c r="E16" s="64">
@@ -69231,7 +69230,7 @@
         <v>1423</v>
       </c>
       <c r="G16" s="65">
-        <f>VLOOKUP(Planilha1!A16,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A16,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69240,15 +69239,15 @@
         <v>100</v>
       </c>
       <c r="B17" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A17,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A17,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C17" s="63">
-        <f>VLOOKUP(Planilha1!A17,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A17,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D17" s="63">
-        <f>VLOOKUP(Planilha1!A17,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A17,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45287.708333333299</v>
       </c>
       <c r="E17" s="64">
@@ -69259,7 +69258,7 @@
         <v>1423</v>
       </c>
       <c r="G17" s="65">
-        <f>VLOOKUP(Planilha1!A17,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A17,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69268,15 +69267,15 @@
         <v>100</v>
       </c>
       <c r="B18" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A18,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A18,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C18" s="63">
-        <f>VLOOKUP(Planilha1!A18,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A18,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D18" s="63">
-        <f>VLOOKUP(Planilha1!A18,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A18,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45287.708333333299</v>
       </c>
       <c r="E18" s="64">
@@ -69287,7 +69286,7 @@
         <v>1423</v>
       </c>
       <c r="G18" s="65">
-        <f>VLOOKUP(Planilha1!A18,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A18,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69296,15 +69295,15 @@
         <v>100</v>
       </c>
       <c r="B19" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A19,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A19,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C19" s="63">
-        <f>VLOOKUP(Planilha1!A19,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A19,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D19" s="63">
-        <f>VLOOKUP(Planilha1!A19,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A19,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45287.708333333299</v>
       </c>
       <c r="E19" s="64">
@@ -69315,7 +69314,7 @@
         <v>1423</v>
       </c>
       <c r="G19" s="65">
-        <f>VLOOKUP(Planilha1!A19,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A19,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69324,15 +69323,15 @@
         <v>109</v>
       </c>
       <c r="B20" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A20,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A20,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C20" s="63">
-        <f>VLOOKUP(Planilha1!A20,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A20,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D20" s="63">
-        <f>VLOOKUP(Planilha1!A20,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A20,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45287.708333333299</v>
       </c>
       <c r="E20" s="64">
@@ -69343,7 +69342,7 @@
         <v>1423</v>
       </c>
       <c r="G20" s="65">
-        <f>VLOOKUP(Planilha1!A20,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A20,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69352,15 +69351,15 @@
         <v>109</v>
       </c>
       <c r="B21" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A21,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A21,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C21" s="63">
-        <f>VLOOKUP(Planilha1!A21,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A21,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D21" s="63">
-        <f>VLOOKUP(Planilha1!A21,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A21,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45287.708333333299</v>
       </c>
       <c r="E21" s="64">
@@ -69371,7 +69370,7 @@
         <v>1423</v>
       </c>
       <c r="G21" s="65">
-        <f>VLOOKUP(Planilha1!A21,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A21,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -69380,15 +69379,15 @@
         <v>112</v>
       </c>
       <c r="B22" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A22,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A22,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C22" s="63">
-        <f>VLOOKUP(Planilha1!A22,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A22,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
       <c r="D22" s="63">
-        <f>VLOOKUP(Planilha1!A22,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A22,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45285.708333333299</v>
       </c>
       <c r="E22" s="64">
@@ -69399,20 +69398,20 @@
         <v>1423</v>
       </c>
       <c r="G22" s="65">
-        <f>VLOOKUP(Planilha1!A22,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A22,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="71" t="s">
         <v>1415</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="38" t="s">
         <v>4</v>
       </c>
@@ -69421,17 +69420,17 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="70" t="s">
         <v>1422</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="97" t="s">
         <v>1424</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="84"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="61" t="s">
@@ -69457,22 +69456,22 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="72" t="s">
         <v>123</v>
       </c>
       <c r="B27" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A27,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A27,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C27" s="63">
-        <f>VLOOKUP(Planilha1!A27,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A27,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45139.5</v>
       </c>
       <c r="D27" s="63">
-        <f>VLOOKUP(Planilha1!A27,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A27,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45212.5</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="73">
         <f t="shared" ref="E27:E29" si="1">D27-C27</f>
         <v>73</v>
       </c>
@@ -69480,27 +69479,27 @@
         <v>1423</v>
       </c>
       <c r="G27" s="65">
-        <f>VLOOKUP(Planilha1!A27,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A27,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="72" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A28,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A28,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C28" s="63">
-        <f>VLOOKUP(Planilha1!A28,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A28,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45139.5</v>
       </c>
       <c r="D28" s="63">
-        <f>VLOOKUP(Planilha1!A28,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A28,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45212.5</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="73">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -69508,27 +69507,27 @@
         <v>1423</v>
       </c>
       <c r="G28" s="65">
-        <f>VLOOKUP(Planilha1!A28,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A28,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="72" t="s">
         <v>130</v>
       </c>
       <c r="B29" s="62" t="str">
-        <f>VLOOKUP(Planilha1!A29,'Tarefas do projeto'!C:T,18,FALSE)</f>
+        <f>VLOOKUP(Transporte!A29,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C29" s="63">
-        <f>VLOOKUP(Planilha1!A29,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A29,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45187.375</v>
       </c>
       <c r="D29" s="63">
-        <f>VLOOKUP(Planilha1!A29,'Tarefas do projeto'!C:E,3,FALSE)</f>
+        <f>VLOOKUP(Transporte!A29,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45230.708333333299</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="73">
         <f t="shared" si="1"/>
         <v>43.333333333299379</v>
       </c>
@@ -69536,20 +69535,20 @@
         <v>1425</v>
       </c>
       <c r="G29" s="65">
-        <f>VLOOKUP(Planilha1!A29,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A29,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="71" t="s">
         <v>1415</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="38" t="s">
         <v>4</v>
       </c>
@@ -69558,19 +69557,19 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="77" t="s">
         <v>1422</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="84"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="38" t="s">
         <v>1416</v>
       </c>
@@ -69580,7 +69579,7 @@
       <c r="C33" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="75" t="s">
         <v>1418</v>
       </c>
       <c r="E33" s="61" t="s">
@@ -69592,27 +69591,24 @@
       <c r="G33" s="61" t="s">
         <v>1419</v>
       </c>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="97" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="98" t="str">
-        <f>VLOOKUP(Planilha1!A34,'Tarefas do projeto'!C:T,18,FALSE)</f>
+      <c r="B34" s="79" t="str">
+        <f>VLOOKUP(Transporte!A34,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C34" s="63">
-        <f>VLOOKUP(Planilha1!A34,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A34,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45194.375</v>
       </c>
-      <c r="D34" s="93">
-        <f>VLOOKUP(Planilha1!A34,'Tarefas do projeto'!C:E,3,FALSE)</f>
+      <c r="D34" s="76">
+        <f>VLOOKUP(Transporte!A34,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45212.708333333299</v>
       </c>
-      <c r="E34" s="89">
+      <c r="E34" s="73">
         <f t="shared" ref="E34" si="2">D34-C34</f>
         <v>18.333333333299379</v>
       </c>
@@ -69620,30 +69616,28 @@
         <v>1423</v>
       </c>
       <c r="G34" s="65">
-        <f>VLOOKUP(Planilha1!A34,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A34,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I34" s="91"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="97" t="s">
+      <c r="I34" s="74"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="98" t="str">
-        <f>VLOOKUP(Planilha1!A35,'Tarefas do projeto'!C:T,18,FALSE)</f>
+      <c r="B35" s="79" t="str">
+        <f>VLOOKUP(Transporte!A35,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C35" s="63">
-        <f>VLOOKUP(Planilha1!A35,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A35,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45215.375</v>
       </c>
-      <c r="D35" s="93">
-        <f>VLOOKUP(Planilha1!A35,'Tarefas do projeto'!C:E,3,FALSE)</f>
+      <c r="D35" s="76">
+        <f>VLOOKUP(Transporte!A35,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45219.708333333299</v>
       </c>
-      <c r="E35" s="89">
+      <c r="E35" s="73">
         <f t="shared" ref="E35:E36" si="3">D35-C35</f>
         <v>4.3333333332993789</v>
       </c>
@@ -69651,30 +69645,28 @@
         <v>1425</v>
       </c>
       <c r="G35" s="65">
-        <f>VLOOKUP(Planilha1!A35,'Tarefas do projeto'!C:G,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="91"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="97" t="s">
+        <f>VLOOKUP(Transporte!A35,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="74"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="98" t="str">
-        <f>VLOOKUP(Planilha1!A36,'Tarefas do projeto'!C:T,18,FALSE)</f>
+      <c r="B36" s="79" t="str">
+        <f>VLOOKUP(Transporte!A36,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C36" s="63">
-        <f>VLOOKUP(Planilha1!A36,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A36,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45222.375</v>
       </c>
-      <c r="D36" s="93">
-        <f>VLOOKUP(Planilha1!A36,'Tarefas do projeto'!C:E,3,FALSE)</f>
+      <c r="D36" s="76">
+        <f>VLOOKUP(Transporte!A36,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45310.708333333299</v>
       </c>
-      <c r="E36" s="89">
+      <c r="E36" s="73">
         <f t="shared" si="3"/>
         <v>88.333333333299379</v>
       </c>
@@ -69682,28 +69674,21 @@
         <v>1425</v>
       </c>
       <c r="G36" s="65">
-        <f>VLOOKUP(Planilha1!A36,'Tarefas do projeto'!C:G,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="91"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="81" t="s">
+        <f>VLOOKUP(Transporte!A36,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="74"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="71" t="s">
         <v>1415</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
       <c r="F38" s="38" t="s">
         <v>4</v>
       </c>
@@ -69711,20 +69696,20 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="94" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="77" t="s">
         <v>1422</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="84"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="96"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="61" t="s">
         <v>1416</v>
       </c>
@@ -69734,7 +69719,7 @@
       <c r="C40" s="61" t="s">
         <v>1417</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="75" t="s">
         <v>1418</v>
       </c>
       <c r="E40" s="61" t="s">
@@ -69747,23 +69732,23 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="97" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="B41" s="98" t="str">
-        <f>VLOOKUP(Planilha1!A41,'Tarefas do projeto'!C:T,18,FALSE)</f>
+      <c r="B41" s="79" t="str">
+        <f>VLOOKUP(Transporte!A41,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C41" s="63">
-        <f>VLOOKUP(Planilha1!A41,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A41,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45139.5</v>
       </c>
-      <c r="D41" s="93">
-        <f>VLOOKUP(Planilha1!A41,'Tarefas do projeto'!C:E,3,FALSE)</f>
+      <c r="D41" s="76">
+        <f>VLOOKUP(Transporte!A41,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45169.5</v>
       </c>
-      <c r="E41" s="89">
+      <c r="E41" s="73">
         <f t="shared" ref="E41" si="4">D41-C41</f>
         <v>30</v>
       </c>
@@ -69771,27 +69756,27 @@
         <v>1423</v>
       </c>
       <c r="G41" s="65">
-        <f>VLOOKUP(Planilha1!A41,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A41,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="97" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="98" t="str">
-        <f>VLOOKUP(Planilha1!A42,'Tarefas do projeto'!C:T,18,FALSE)</f>
+      <c r="B42" s="79" t="str">
+        <f>VLOOKUP(Transporte!A42,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C42" s="63">
-        <f>VLOOKUP(Planilha1!A42,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A42,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45169.5</v>
       </c>
-      <c r="D42" s="93">
-        <f>VLOOKUP(Planilha1!A42,'Tarefas do projeto'!C:E,3,FALSE)</f>
+      <c r="D42" s="76">
+        <f>VLOOKUP(Transporte!A42,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45183.5</v>
       </c>
-      <c r="E42" s="89">
+      <c r="E42" s="73">
         <f t="shared" ref="E42:E45" si="5">D42-C42</f>
         <v>14</v>
       </c>
@@ -69799,27 +69784,27 @@
         <v>1423</v>
       </c>
       <c r="G42" s="65">
-        <f>VLOOKUP(Planilha1!A42,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A42,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="97" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="98" t="str">
-        <f>VLOOKUP(Planilha1!A43,'Tarefas do projeto'!C:T,18,FALSE)</f>
+      <c r="B43" s="79" t="str">
+        <f>VLOOKUP(Transporte!A43,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C43" s="63">
-        <f>VLOOKUP(Planilha1!A43,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A43,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45183.5</v>
       </c>
-      <c r="D43" s="93">
-        <f>VLOOKUP(Planilha1!A43,'Tarefas do projeto'!C:E,3,FALSE)</f>
+      <c r="D43" s="76">
+        <f>VLOOKUP(Transporte!A43,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45267.5</v>
       </c>
-      <c r="E43" s="89">
+      <c r="E43" s="73">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
@@ -69827,27 +69812,27 @@
         <v>1425</v>
       </c>
       <c r="G43" s="65">
-        <f>VLOOKUP(Planilha1!A43,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A43,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="97" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B44" s="98" t="str">
-        <f>VLOOKUP(Planilha1!A44,'Tarefas do projeto'!C:T,18,FALSE)</f>
+      <c r="B44" s="79" t="str">
+        <f>VLOOKUP(Transporte!A44,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C44" s="63">
-        <f>VLOOKUP(Planilha1!A44,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A44,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45183.5</v>
       </c>
-      <c r="D44" s="93">
-        <f>VLOOKUP(Planilha1!A44,'Tarefas do projeto'!C:E,3,FALSE)</f>
+      <c r="D44" s="76">
+        <f>VLOOKUP(Transporte!A44,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45267.5</v>
       </c>
-      <c r="E44" s="89">
+      <c r="E44" s="73">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
@@ -69855,27 +69840,27 @@
         <v>1425</v>
       </c>
       <c r="G44" s="65">
-        <f>VLOOKUP(Planilha1!A44,'Tarefas do projeto'!C:G,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="97" t="s">
+        <f>VLOOKUP(Transporte!A44,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="98" t="str">
-        <f>VLOOKUP(Planilha1!A45,'Tarefas do projeto'!C:T,18,FALSE)</f>
+      <c r="B45" s="79" t="str">
+        <f>VLOOKUP(Transporte!A45,'Tarefas do projeto'!C:T,18,FALSE)</f>
         <v>Média</v>
       </c>
       <c r="C45" s="63">
-        <f>VLOOKUP(Planilha1!A45,'Tarefas do projeto'!C:E,2,FALSE)</f>
+        <f>VLOOKUP(Transporte!A45,'Tarefas do projeto'!C:E,2,FALSE)</f>
         <v>45196.375</v>
       </c>
-      <c r="D45" s="93">
-        <f>VLOOKUP(Planilha1!A45,'Tarefas do projeto'!C:E,3,FALSE)</f>
+      <c r="D45" s="76">
+        <f>VLOOKUP(Transporte!A45,'Tarefas do projeto'!C:E,3,FALSE)</f>
         <v>45225.708333333299</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E45" s="73">
         <f t="shared" si="5"/>
         <v>29.333333333299379</v>
       </c>
@@ -69883,21 +69868,21 @@
         <v>1425</v>
       </c>
       <c r="G45" s="65">
-        <f>VLOOKUP(Planilha1!A45,'Tarefas do projeto'!C:G,5,FALSE)</f>
+        <f>VLOOKUP(Transporte!A45,'Tarefas do projeto'!C:G,5,FALSE)</f>
         <v>0.15</v>
       </c>
       <c r="I45" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G22">
     <cfRule type="cellIs" dxfId="15" priority="31" operator="greaterThan">
